--- a/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -444,73 +447,76 @@
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -450,73 +456,79 @@
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>4.2071792171828</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>3.666146015590053</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>10.46981568792264</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>21.25057451372225</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>28.87766761106556</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>9.380001747625112</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.95732757008373</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>21.17468621216255</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>18.94996852279672</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>4.017251355343753</v>
+      </c>
+      <c r="D3">
+        <v>3.648886187730674</v>
+      </c>
+      <c r="E3">
+        <v>9.940730895570093</v>
+      </c>
+      <c r="F3">
+        <v>20.48313644506195</v>
+      </c>
+      <c r="G3">
+        <v>27.63048420824157</v>
+      </c>
+      <c r="H3">
+        <v>9.332382948352876</v>
+      </c>
+      <c r="I3">
+        <v>15.53510162389721</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>19.8229759821474</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>17.68904461982607</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>3.895962449955958</v>
+      </c>
+      <c r="D4">
+        <v>3.639011006396307</v>
+      </c>
+      <c r="E4">
+        <v>9.618499876821875</v>
+      </c>
+      <c r="F4">
+        <v>20.03291196897367</v>
+      </c>
+      <c r="G4">
+        <v>26.89624445224484</v>
+      </c>
+      <c r="H4">
+        <v>9.316116811230456</v>
+      </c>
+      <c r="I4">
+        <v>15.29605301889333</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>18.94819890938175</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>16.87439012336947</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>3.845395144787039</v>
+      </c>
+      <c r="D5">
+        <v>3.635161819953261</v>
+      </c>
+      <c r="E5">
+        <v>9.487985975656926</v>
+      </c>
+      <c r="F5">
+        <v>19.85485301628744</v>
+      </c>
+      <c r="G5">
+        <v>26.60526974371671</v>
+      </c>
+      <c r="H5">
+        <v>9.312584645433136</v>
+      </c>
+      <c r="I5">
+        <v>15.20367119796046</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>18.58041671112787</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>16.53215438396821</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>3.836930688819261</v>
+      </c>
+      <c r="D6">
+        <v>3.634533060430235</v>
+      </c>
+      <c r="E6">
+        <v>9.466366908360387</v>
+      </c>
+      <c r="F6">
+        <v>19.82561698109154</v>
+      </c>
+      <c r="G6">
+        <v>26.55745965160251</v>
+      </c>
+      <c r="H6">
+        <v>9.312180259286727</v>
+      </c>
+      <c r="I6">
+        <v>15.18863340958525</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>18.51866350614463</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>16.47470458284413</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3.895285052038586</v>
+      </c>
+      <c r="D7">
+        <v>3.638958394323911</v>
+      </c>
+      <c r="E7">
+        <v>9.616736291103484</v>
+      </c>
+      <c r="F7">
+        <v>20.03048852445071</v>
+      </c>
+      <c r="G7">
+        <v>26.89228652938595</v>
+      </c>
+      <c r="H7">
+        <v>9.316056858530139</v>
+      </c>
+      <c r="I7">
+        <v>15.29478682721081</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>18.94328466577077</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>16.86981625062494</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>4.142680023569966</v>
+      </c>
+      <c r="D8">
+        <v>3.660040595906584</v>
+      </c>
+      <c r="E8">
+        <v>10.28691529729486</v>
+      </c>
+      <c r="F8">
+        <v>20.98168883092605</v>
+      </c>
+      <c r="G8">
+        <v>28.44127537839165</v>
+      </c>
+      <c r="H8">
+        <v>9.360791836696796</v>
+      </c>
+      <c r="I8">
+        <v>15.80752948004787</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>20.71789323674807</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>18.52353836624861</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>4.589605685161284</v>
+      </c>
+      <c r="D9">
+        <v>3.707470140849476</v>
+      </c>
+      <c r="E9">
+        <v>11.61751271209052</v>
+      </c>
+      <c r="F9">
+        <v>23.00763985215069</v>
+      </c>
+      <c r="G9">
+        <v>31.71647355319883</v>
+      </c>
+      <c r="H9">
+        <v>9.558653775525954</v>
+      </c>
+      <c r="I9">
+        <v>16.97455630945882</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>23.84476859239996</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>21.45029868023807</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>4.893578013337296</v>
+      </c>
+      <c r="D10">
+        <v>3.74661765433594</v>
+      </c>
+      <c r="E10">
+        <v>12.79474882403182</v>
+      </c>
+      <c r="F10">
+        <v>24.58734609782506</v>
+      </c>
+      <c r="G10">
+        <v>34.25386537478972</v>
+      </c>
+      <c r="H10">
+        <v>9.78070261752671</v>
+      </c>
+      <c r="I10">
+        <v>17.93163744063914</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>25.93158519324388</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>23.41539265866157</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>5.026450165883362</v>
+      </c>
+      <c r="D11">
+        <v>3.765521771913664</v>
+      </c>
+      <c r="E11">
+        <v>13.34485785309943</v>
+      </c>
+      <c r="F11">
+        <v>25.3249563464118</v>
+      </c>
+      <c r="G11">
+        <v>35.43502806547933</v>
+      </c>
+      <c r="H11">
+        <v>9.900316623427594</v>
+      </c>
+      <c r="I11">
+        <v>18.38894234232158</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>26.83658705952508</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>24.27109006781306</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>5.075984286696071</v>
+      </c>
+      <c r="D12">
+        <v>3.772853806019021</v>
+      </c>
+      <c r="E12">
+        <v>13.55129773593187</v>
+      </c>
+      <c r="F12">
+        <v>25.60698314649374</v>
+      </c>
+      <c r="G12">
+        <v>35.88614264641606</v>
+      </c>
+      <c r="H12">
+        <v>9.948440701676613</v>
+      </c>
+      <c r="I12">
+        <v>18.5652988400556</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>27.17304849524246</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>24.58980306135849</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>5.065351013042059</v>
+      </c>
+      <c r="D13">
+        <v>3.771266727434995</v>
+      </c>
+      <c r="E13">
+        <v>13.50691745093739</v>
+      </c>
+      <c r="F13">
+        <v>25.54612290362846</v>
+      </c>
+      <c r="G13">
+        <v>35.78881601717791</v>
+      </c>
+      <c r="H13">
+        <v>9.937948083454209</v>
+      </c>
+      <c r="I13">
+        <v>18.52717491651946</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>27.10086096525335</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>24.52139614648312</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>5.030541042279888</v>
+      </c>
+      <c r="D14">
+        <v>3.766121406708696</v>
+      </c>
+      <c r="E14">
+        <v>13.36187823583334</v>
+      </c>
+      <c r="F14">
+        <v>25.34810449363529</v>
+      </c>
+      <c r="G14">
+        <v>35.47206453824338</v>
+      </c>
+      <c r="H14">
+        <v>9.904218253939751</v>
+      </c>
+      <c r="I14">
+        <v>18.40338720497234</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>26.86439227770507</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>24.29741633722209</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>5.009117082667018</v>
+      </c>
+      <c r="D15">
+        <v>3.762992851458374</v>
+      </c>
+      <c r="E15">
+        <v>13.27279916957462</v>
+      </c>
+      <c r="F15">
+        <v>25.22716562588608</v>
+      </c>
+      <c r="G15">
+        <v>35.27854507784273</v>
+      </c>
+      <c r="H15">
+        <v>9.88393067932954</v>
+      </c>
+      <c r="I15">
+        <v>18.32797975514089</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>26.71873939998999</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>24.15953485818012</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>4.884785249396155</v>
+      </c>
+      <c r="D16">
+        <v>3.745405578512774</v>
+      </c>
+      <c r="E16">
+        <v>12.75852529105986</v>
+      </c>
+      <c r="F16">
+        <v>24.53952076854778</v>
+      </c>
+      <c r="G16">
+        <v>34.17720972865045</v>
+      </c>
+      <c r="H16">
+        <v>9.773273107948183</v>
+      </c>
+      <c r="I16">
+        <v>17.90219498746059</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>25.87156024916128</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>23.35871615303922</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>4.807122531855414</v>
+      </c>
+      <c r="D17">
+        <v>3.734907561147217</v>
+      </c>
+      <c r="E17">
+        <v>12.43949742885355</v>
+      </c>
+      <c r="F17">
+        <v>24.12250698291575</v>
+      </c>
+      <c r="G17">
+        <v>33.50841020364104</v>
+      </c>
+      <c r="H17">
+        <v>9.710263280774811</v>
+      </c>
+      <c r="I17">
+        <v>17.64662232437368</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>25.34058209155686</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>22.85776722328933</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>4.761944074990074</v>
+      </c>
+      <c r="D18">
+        <v>3.728971427119371</v>
+      </c>
+      <c r="E18">
+        <v>12.25464539998073</v>
+      </c>
+      <c r="F18">
+        <v>23.88443795705465</v>
+      </c>
+      <c r="G18">
+        <v>33.12626185134517</v>
+      </c>
+      <c r="H18">
+        <v>9.675763730494255</v>
+      </c>
+      <c r="I18">
+        <v>17.5016844319652</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>25.03099901823264</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>22.56602422588818</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>4.746560222354472</v>
+      </c>
+      <c r="D19">
+        <v>3.726978635288877</v>
+      </c>
+      <c r="E19">
+        <v>12.19181987219589</v>
+      </c>
+      <c r="F19">
+        <v>23.80414012920088</v>
+      </c>
+      <c r="G19">
+        <v>32.99730962881117</v>
+      </c>
+      <c r="H19">
+        <v>9.664377237823969</v>
+      </c>
+      <c r="I19">
+        <v>17.45296420480494</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>24.92545823579491</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>22.46661988172379</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>4.815442576591803</v>
+      </c>
+      <c r="D20">
+        <v>3.736014423943349</v>
+      </c>
+      <c r="E20">
+        <v>12.47359759181697</v>
+      </c>
+      <c r="F20">
+        <v>24.16671425454035</v>
+      </c>
+      <c r="G20">
+        <v>33.57934401708773</v>
+      </c>
+      <c r="H20">
+        <v>9.716789367602935</v>
+      </c>
+      <c r="I20">
+        <v>17.67361501888523</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>25.39753720891251</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>22.91146653561124</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>5.040786800746398</v>
+      </c>
+      <c r="D21">
+        <v>3.767627865771697</v>
+      </c>
+      <c r="E21">
+        <v>13.40452908604487</v>
+      </c>
+      <c r="F21">
+        <v>25.40619367493681</v>
+      </c>
+      <c r="G21">
+        <v>35.56499785356148</v>
+      </c>
+      <c r="H21">
+        <v>9.914047535099192</v>
+      </c>
+      <c r="I21">
+        <v>18.43965985402543</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>26.93401720309019</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>24.3633475424029</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5.183507199858382</v>
+      </c>
+      <c r="D22">
+        <v>3.789309311469818</v>
+      </c>
+      <c r="E22">
+        <v>14.00212367261881</v>
+      </c>
+      <c r="F22">
+        <v>26.23208800174663</v>
+      </c>
+      <c r="G22">
+        <v>36.91016742734639</v>
+      </c>
+      <c r="H22">
+        <v>10.05952588747635</v>
+      </c>
+      <c r="I22">
+        <v>18.95891084900909</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>27.90187700464792</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>25.2813169253883</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>5.107751682150581</v>
+      </c>
+      <c r="D23">
+        <v>3.777638256774116</v>
+      </c>
+      <c r="E23">
+        <v>13.684100377274</v>
+      </c>
+      <c r="F23">
+        <v>25.78983832389252</v>
+      </c>
+      <c r="G23">
+        <v>36.17849075891196</v>
+      </c>
+      <c r="H23">
+        <v>9.980315960746983</v>
+      </c>
+      <c r="I23">
+        <v>18.6800587867532</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>27.38858875976946</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>24.79414487760183</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>4.811682732100786</v>
+      </c>
+      <c r="D24">
+        <v>3.73551370309762</v>
+      </c>
+      <c r="E24">
+        <v>12.45818540234297</v>
+      </c>
+      <c r="F24">
+        <v>24.14672291886593</v>
+      </c>
+      <c r="G24">
+        <v>33.54726750588669</v>
+      </c>
+      <c r="H24">
+        <v>9.713833560434693</v>
+      </c>
+      <c r="I24">
+        <v>17.66140541222133</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>25.37180125520953</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>22.88720074134967</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>4.47292548730884</v>
+      </c>
+      <c r="D25">
+        <v>3.693932111600473</v>
+      </c>
+      <c r="E25">
+        <v>11.25629149786133</v>
+      </c>
+      <c r="F25">
+        <v>22.44313549090798</v>
+      </c>
+      <c r="G25">
+        <v>30.80661788946155</v>
+      </c>
+      <c r="H25">
+        <v>9.492333674211974</v>
+      </c>
+      <c r="I25">
+        <v>16.64140819335634</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>23.03623937823826</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>20.69165669955146</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.2071792171828</v>
+        <v>3.494130772323899</v>
       </c>
       <c r="D2">
-        <v>3.666146015590053</v>
+        <v>4.672245578028645</v>
       </c>
       <c r="E2">
-        <v>10.46981568792264</v>
+        <v>10.72125653781629</v>
       </c>
       <c r="F2">
-        <v>21.25057451372225</v>
+        <v>24.9379913592078</v>
       </c>
       <c r="G2">
-        <v>28.87766761106556</v>
+        <v>30.20748193470057</v>
       </c>
       <c r="H2">
-        <v>9.380001747625112</v>
+        <v>14.37780188253867</v>
       </c>
       <c r="I2">
-        <v>15.95732757008373</v>
+        <v>20.6417696799914</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>21.17468621216255</v>
+        <v>13.54477112006325</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.94996852279672</v>
+        <v>15.40947398701308</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.017251355343753</v>
+        <v>3.414013567003487</v>
       </c>
       <c r="D3">
-        <v>3.648886187730674</v>
+        <v>4.666857086176097</v>
       </c>
       <c r="E3">
-        <v>9.940730895570093</v>
+        <v>10.65758884208388</v>
       </c>
       <c r="F3">
-        <v>20.48313644506195</v>
+        <v>24.92639173636222</v>
       </c>
       <c r="G3">
-        <v>27.63048420824157</v>
+        <v>30.13935031644152</v>
       </c>
       <c r="H3">
-        <v>9.332382948352876</v>
+        <v>14.43623324354205</v>
       </c>
       <c r="I3">
-        <v>15.53510162389721</v>
+        <v>20.6769484384216</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>19.8229759821474</v>
+        <v>12.9738543449897</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.68904461982607</v>
+        <v>15.0921539315271</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.895962449955958</v>
+        <v>3.363422214283655</v>
       </c>
       <c r="D4">
-        <v>3.639011006396307</v>
+        <v>4.663833046233505</v>
       </c>
       <c r="E4">
-        <v>9.618499876821875</v>
+        <v>10.62299286192739</v>
       </c>
       <c r="F4">
-        <v>20.03291196897367</v>
+        <v>24.92990634986318</v>
       </c>
       <c r="G4">
-        <v>26.89624445224484</v>
+        <v>30.11413693792126</v>
       </c>
       <c r="H4">
-        <v>9.316116811230456</v>
+        <v>14.47611594325838</v>
       </c>
       <c r="I4">
-        <v>15.29605301889333</v>
+        <v>20.70634394374765</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>18.94819890938175</v>
+        <v>12.611451105029</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.87439012336947</v>
+        <v>14.89735900020397</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.845395144787039</v>
+        <v>3.342472347500905</v>
       </c>
       <c r="D5">
-        <v>3.635161819953261</v>
+        <v>4.662673076176831</v>
       </c>
       <c r="E5">
-        <v>9.487985975656926</v>
+        <v>10.61003428385933</v>
       </c>
       <c r="F5">
-        <v>19.85485301628744</v>
+        <v>24.93400347181082</v>
       </c>
       <c r="G5">
-        <v>26.60526974371671</v>
+        <v>30.10803028906526</v>
       </c>
       <c r="H5">
-        <v>9.312584645433136</v>
+        <v>14.49337088510514</v>
       </c>
       <c r="I5">
-        <v>15.20367119796046</v>
+        <v>20.72027159302756</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>18.58041671112787</v>
+        <v>12.46099294812715</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.53215438396821</v>
+        <v>14.81810142928583</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.836930688819261</v>
+        <v>3.338974054252307</v>
       </c>
       <c r="D6">
-        <v>3.634533060430235</v>
+        <v>4.662484857284311</v>
       </c>
       <c r="E6">
-        <v>9.466366908360387</v>
+        <v>10.60795156179269</v>
       </c>
       <c r="F6">
-        <v>19.82561698109154</v>
+        <v>24.93484440075881</v>
       </c>
       <c r="G6">
-        <v>26.55745965160251</v>
+        <v>30.10726754672011</v>
       </c>
       <c r="H6">
-        <v>9.312180259286727</v>
+        <v>14.49629645588348</v>
       </c>
       <c r="I6">
-        <v>15.18863340958525</v>
+        <v>20.72270160660072</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>18.51866350614463</v>
+        <v>12.43584836798674</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.47470458284413</v>
+        <v>14.80495153127732</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.895285052038586</v>
+        <v>3.363141002273546</v>
       </c>
       <c r="D7">
-        <v>3.638958394323911</v>
+        <v>4.663817108489829</v>
       </c>
       <c r="E7">
-        <v>9.616736291103484</v>
+        <v>10.62281347398639</v>
       </c>
       <c r="F7">
-        <v>20.03048852445071</v>
+        <v>24.92995083043905</v>
       </c>
       <c r="G7">
-        <v>26.89228652938595</v>
+        <v>30.11403772596294</v>
       </c>
       <c r="H7">
-        <v>9.316056858530139</v>
+        <v>14.47634459718655</v>
       </c>
       <c r="I7">
-        <v>15.29478682721081</v>
+        <v>20.70652390275199</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>18.94328466577077</v>
+        <v>12.60943292164753</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.86981625062494</v>
+        <v>14.89628945659395</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.142680023569966</v>
+        <v>3.466807378733059</v>
       </c>
       <c r="D8">
-        <v>3.660040595906584</v>
+        <v>4.670329059141368</v>
       </c>
       <c r="E8">
-        <v>10.28691529729486</v>
+        <v>10.69837683984362</v>
       </c>
       <c r="F8">
-        <v>20.98168883092605</v>
+        <v>24.93177916754029</v>
       </c>
       <c r="G8">
-        <v>28.44127537839165</v>
+        <v>30.18053637467053</v>
       </c>
       <c r="H8">
-        <v>9.360791836696796</v>
+        <v>14.39711477711846</v>
       </c>
       <c r="I8">
-        <v>15.80752948004787</v>
+        <v>20.65227478487001</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>20.71789323674807</v>
+        <v>13.35049562782715</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.52353836624861</v>
+        <v>15.30012038604344</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.589605685161284</v>
+        <v>3.658249548740771</v>
       </c>
       <c r="D9">
-        <v>3.707470140849476</v>
+        <v>4.685321552770036</v>
       </c>
       <c r="E9">
-        <v>11.61751271209052</v>
+        <v>10.88172066214005</v>
       </c>
       <c r="F9">
-        <v>23.00763985215069</v>
+        <v>25.02005248344666</v>
       </c>
       <c r="G9">
-        <v>31.71647355319883</v>
+        <v>30.44292801462057</v>
       </c>
       <c r="H9">
-        <v>9.558653775525954</v>
+        <v>14.27374006927208</v>
       </c>
       <c r="I9">
-        <v>16.97455630945882</v>
+        <v>20.60820250904826</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>23.84476859239996</v>
+        <v>14.7018683480434</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.45029868023807</v>
+        <v>16.08754730674318</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.893578013337296</v>
+        <v>3.790763595016394</v>
       </c>
       <c r="D10">
-        <v>3.74661765433594</v>
+        <v>4.697645382844795</v>
       </c>
       <c r="E10">
-        <v>12.79474882403182</v>
+        <v>11.03701430325652</v>
       </c>
       <c r="F10">
-        <v>24.58734609782506</v>
+        <v>25.13671089341696</v>
       </c>
       <c r="G10">
-        <v>34.25386537478972</v>
+        <v>30.71578667293488</v>
       </c>
       <c r="H10">
-        <v>9.78070261752671</v>
+        <v>14.20288579795416</v>
       </c>
       <c r="I10">
-        <v>17.93163744063914</v>
+        <v>20.61434042141905</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>25.93158519324388</v>
+        <v>15.62386629588693</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.41539265866157</v>
+        <v>16.65715946334989</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.026450165883362</v>
+        <v>3.849109995679255</v>
       </c>
       <c r="D11">
-        <v>3.765521771913664</v>
+        <v>4.703526130508123</v>
       </c>
       <c r="E11">
-        <v>13.34485785309943</v>
+        <v>11.11190766603669</v>
       </c>
       <c r="F11">
-        <v>25.3249563464118</v>
+        <v>25.20099782047386</v>
       </c>
       <c r="G11">
-        <v>35.43502806547933</v>
+        <v>30.85705832065243</v>
       </c>
       <c r="H11">
-        <v>9.900316623427594</v>
+        <v>14.17500805795168</v>
       </c>
       <c r="I11">
-        <v>18.38894234232158</v>
+        <v>20.62557969162646</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>26.83658705952508</v>
+        <v>16.02648064539623</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.27109006781306</v>
+        <v>16.91314030764267</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.075984286696071</v>
+        <v>3.870913283447285</v>
       </c>
       <c r="D12">
-        <v>3.772853806019021</v>
+        <v>4.705791633936835</v>
       </c>
       <c r="E12">
-        <v>13.55129773593187</v>
+        <v>11.14085723761596</v>
       </c>
       <c r="F12">
-        <v>25.60698314649374</v>
+        <v>25.22694663086422</v>
       </c>
       <c r="G12">
-        <v>35.88614264641606</v>
+        <v>30.91298759236392</v>
       </c>
       <c r="H12">
-        <v>9.948440701676613</v>
+        <v>14.16508225367095</v>
       </c>
       <c r="I12">
-        <v>18.5652988400556</v>
+        <v>20.63105471061141</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>27.17304849524246</v>
+        <v>16.17642653342772</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.58980306135849</v>
+        <v>17.00952818812696</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.065351013042059</v>
+        <v>3.866230702814281</v>
       </c>
       <c r="D13">
-        <v>3.771266727434995</v>
+        <v>4.705302015103498</v>
       </c>
       <c r="E13">
-        <v>13.50691745093739</v>
+        <v>11.13459659709513</v>
       </c>
       <c r="F13">
-        <v>25.54612290362846</v>
+        <v>25.22128688912438</v>
       </c>
       <c r="G13">
-        <v>35.78881601717791</v>
+        <v>30.90083462666665</v>
       </c>
       <c r="H13">
-        <v>9.937948083454209</v>
+        <v>14.16719181995681</v>
       </c>
       <c r="I13">
-        <v>18.52717491651946</v>
+        <v>20.62982130342211</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>27.10086096525335</v>
+        <v>16.14424628751716</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.52139614648312</v>
+        <v>16.98879509288406</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.030541042279888</v>
+        <v>3.850909672392669</v>
       </c>
       <c r="D14">
-        <v>3.766121406708696</v>
+        <v>4.703711746527717</v>
       </c>
       <c r="E14">
-        <v>13.36187823583334</v>
+        <v>11.11427769035116</v>
       </c>
       <c r="F14">
-        <v>25.34810449363529</v>
+        <v>25.20310054361108</v>
       </c>
       <c r="G14">
-        <v>35.47206453824338</v>
+        <v>30.86161111375136</v>
       </c>
       <c r="H14">
-        <v>9.904218253939751</v>
+        <v>14.17417878533518</v>
       </c>
       <c r="I14">
-        <v>18.40338720497234</v>
+        <v>20.62600567645837</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>26.86439227770507</v>
+        <v>16.03886770770874</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.29741633722209</v>
+        <v>16.921081673846</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.009117082667018</v>
+        <v>3.841486805820619</v>
       </c>
       <c r="D15">
-        <v>3.762992851458374</v>
+        <v>4.702742660350692</v>
       </c>
       <c r="E15">
-        <v>13.27279916957462</v>
+        <v>11.10190780861194</v>
       </c>
       <c r="F15">
-        <v>25.22716562588608</v>
+        <v>25.19216955878241</v>
       </c>
       <c r="G15">
-        <v>35.27854507784273</v>
+        <v>30.83790129550517</v>
       </c>
       <c r="H15">
-        <v>9.88393067932954</v>
+        <v>14.17854080271289</v>
       </c>
       <c r="I15">
-        <v>18.32797975514089</v>
+        <v>20.62382733719797</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>26.71873939998999</v>
+        <v>15.97399003531795</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.15953485818012</v>
+        <v>16.87953135262467</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.884785249396155</v>
+        <v>3.786910449309773</v>
       </c>
       <c r="D16">
-        <v>3.745405578512774</v>
+        <v>4.697266511219551</v>
       </c>
       <c r="E16">
-        <v>12.75852529105986</v>
+        <v>11.03220351437295</v>
       </c>
       <c r="F16">
-        <v>24.53952076854778</v>
+        <v>25.13273468997657</v>
       </c>
       <c r="G16">
-        <v>34.17720972865045</v>
+        <v>30.7068966296605</v>
       </c>
       <c r="H16">
-        <v>9.773273107948183</v>
+        <v>14.20479570202869</v>
       </c>
       <c r="I16">
-        <v>17.90219498746059</v>
+        <v>20.61377628776415</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>25.87156024916128</v>
+        <v>15.59720751947583</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.35871615303922</v>
+        <v>16.64035908737608</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.807122531855414</v>
+        <v>3.752924448382838</v>
       </c>
       <c r="D17">
-        <v>3.734907561147217</v>
+        <v>4.69397676384213</v>
       </c>
       <c r="E17">
-        <v>12.43949742885355</v>
+        <v>10.99051547097069</v>
       </c>
       <c r="F17">
-        <v>24.12250698291575</v>
+        <v>25.09914169638948</v>
       </c>
       <c r="G17">
-        <v>33.50841020364104</v>
+        <v>30.63090014632042</v>
       </c>
       <c r="H17">
-        <v>9.710263280774811</v>
+        <v>14.22202088474932</v>
       </c>
       <c r="I17">
-        <v>17.64662232437368</v>
+        <v>20.60977734908554</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>25.34058209155686</v>
+        <v>15.36168383755475</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.85776722328933</v>
+        <v>16.49276122148814</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.761944074990074</v>
+        <v>3.733195181749527</v>
       </c>
       <c r="D18">
-        <v>3.728971427119371</v>
+        <v>4.692110486237582</v>
       </c>
       <c r="E18">
-        <v>12.25464539998073</v>
+        <v>10.96693902355396</v>
       </c>
       <c r="F18">
-        <v>23.88443795705465</v>
+        <v>25.08087654997868</v>
       </c>
       <c r="G18">
-        <v>33.12626185134517</v>
+        <v>30.5888053756257</v>
       </c>
       <c r="H18">
-        <v>9.675763730494255</v>
+        <v>14.23233791869568</v>
       </c>
       <c r="I18">
-        <v>17.5016844319652</v>
+        <v>20.60827219319939</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>25.03099901823264</v>
+        <v>15.22463972065647</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.56602422588818</v>
+        <v>16.40757674683019</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.746560222354472</v>
+        <v>3.726484446543093</v>
       </c>
       <c r="D19">
-        <v>3.726978635288877</v>
+        <v>4.691483071792785</v>
       </c>
       <c r="E19">
-        <v>12.19181987219589</v>
+        <v>10.95902602942254</v>
       </c>
       <c r="F19">
-        <v>23.80414012920088</v>
+        <v>25.0748739686057</v>
       </c>
       <c r="G19">
-        <v>32.99730962881117</v>
+        <v>30.57483130992561</v>
       </c>
       <c r="H19">
-        <v>9.664377237823969</v>
+        <v>14.23590128479162</v>
       </c>
       <c r="I19">
-        <v>17.45296420480494</v>
+        <v>20.6078989463075</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>24.92545823579491</v>
+        <v>15.1779713228268</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.46661988172379</v>
+        <v>16.37868792016904</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.815442576591803</v>
+        <v>3.756561189892278</v>
       </c>
       <c r="D20">
-        <v>3.736014423943349</v>
+        <v>4.694324289193313</v>
       </c>
       <c r="E20">
-        <v>12.47359759181697</v>
+        <v>10.99491184383591</v>
       </c>
       <c r="F20">
-        <v>24.16671425454035</v>
+        <v>25.10260841884933</v>
       </c>
       <c r="G20">
-        <v>33.57934401708773</v>
+        <v>30.63882302646252</v>
       </c>
       <c r="H20">
-        <v>9.716789367602935</v>
+        <v>14.22014481148872</v>
       </c>
       <c r="I20">
-        <v>17.67361501888523</v>
+        <v>20.61012073506751</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>25.39753720891251</v>
+        <v>15.38691972467665</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.91146653561124</v>
+        <v>16.50850399710716</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.040786800746398</v>
+        <v>3.855417832284082</v>
       </c>
       <c r="D21">
-        <v>3.767627865771697</v>
+        <v>4.704177806716121</v>
       </c>
       <c r="E21">
-        <v>13.40452908604487</v>
+        <v>11.12023004156952</v>
       </c>
       <c r="F21">
-        <v>25.40619367493681</v>
+        <v>25.2083988458383</v>
       </c>
       <c r="G21">
-        <v>35.56499785356148</v>
+        <v>30.8730662842467</v>
       </c>
       <c r="H21">
-        <v>9.914047535099192</v>
+        <v>14.17210938484039</v>
       </c>
       <c r="I21">
-        <v>18.43965985402543</v>
+        <v>20.62709331062729</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>26.93401720309019</v>
+        <v>16.06988892970691</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.3633475424029</v>
+        <v>16.94098630808078</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.183507199858382</v>
+        <v>3.918323612336096</v>
       </c>
       <c r="D22">
-        <v>3.789309311469818</v>
+        <v>4.710842175823815</v>
       </c>
       <c r="E22">
-        <v>14.00212367261881</v>
+        <v>11.20555505121494</v>
       </c>
       <c r="F22">
-        <v>26.23208800174663</v>
+        <v>25.28688640956518</v>
       </c>
       <c r="G22">
-        <v>36.91016742734639</v>
+        <v>31.04031748941695</v>
       </c>
       <c r="H22">
-        <v>10.05952588747635</v>
+        <v>14.14439487304274</v>
       </c>
       <c r="I22">
-        <v>18.95891084900909</v>
+        <v>20.64529167954316</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>27.90187700464792</v>
+        <v>16.50155151267905</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.2813169253883</v>
+        <v>17.22041303857533</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.107751682150581</v>
+        <v>3.884909422345984</v>
       </c>
       <c r="D23">
-        <v>3.777638256774116</v>
+        <v>4.707265028516093</v>
       </c>
       <c r="E23">
-        <v>13.684100377274</v>
+        <v>11.15971001555828</v>
       </c>
       <c r="F23">
-        <v>25.78983832389252</v>
+        <v>25.24414449143748</v>
       </c>
       <c r="G23">
-        <v>36.17849075891196</v>
+        <v>30.94976949927214</v>
       </c>
       <c r="H23">
-        <v>9.980315960746983</v>
+        <v>14.15884842908872</v>
       </c>
       <c r="I23">
-        <v>18.6800587867532</v>
+        <v>20.63492769608668</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>27.38858875976946</v>
+        <v>16.27253861218459</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.79414487760183</v>
+        <v>17.07160278879966</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.811682732100786</v>
+        <v>3.754917610682182</v>
       </c>
       <c r="D24">
-        <v>3.73551370309762</v>
+        <v>4.694167094894748</v>
       </c>
       <c r="E24">
-        <v>12.45818540234297</v>
+        <v>10.99292302547614</v>
       </c>
       <c r="F24">
-        <v>24.14672291886593</v>
+        <v>25.10103784888208</v>
       </c>
       <c r="G24">
-        <v>33.54726750588669</v>
+        <v>30.63523611665418</v>
       </c>
       <c r="H24">
-        <v>9.713833560434693</v>
+        <v>14.22099169483775</v>
       </c>
       <c r="I24">
-        <v>17.66140541222133</v>
+        <v>20.60996301772386</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>25.37180125520953</v>
+        <v>15.37551567577958</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.88720074134967</v>
+        <v>16.50138770414811</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.47292548730884</v>
+        <v>3.607826832659305</v>
       </c>
       <c r="D25">
-        <v>3.693932111600473</v>
+        <v>4.681032473701799</v>
       </c>
       <c r="E25">
-        <v>11.25629149786133</v>
+        <v>10.82843537574903</v>
       </c>
       <c r="F25">
-        <v>22.44313549090798</v>
+        <v>24.9870744235303</v>
       </c>
       <c r="G25">
-        <v>30.80661788946155</v>
+        <v>30.35782239858454</v>
       </c>
       <c r="H25">
-        <v>9.492333674211974</v>
+        <v>14.30366115897566</v>
       </c>
       <c r="I25">
-        <v>16.64140819335634</v>
+        <v>20.61339390205103</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>23.03623937823826</v>
+        <v>14.34817812173327</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.69165669955146</v>
+        <v>15.87566230597939</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
@@ -424,37 +424,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>3.494130772323899</v>
+        <v>4.207179217182821</v>
       </c>
       <c r="D2">
-        <v>4.672245578028645</v>
+        <v>3.666146015590044</v>
       </c>
       <c r="E2">
-        <v>10.72125653781629</v>
+        <v>10.46981568792263</v>
       </c>
       <c r="F2">
-        <v>24.9379913592078</v>
+        <v>21.2505745137221</v>
       </c>
       <c r="G2">
-        <v>30.20748193470057</v>
+        <v>28.8776676110654</v>
       </c>
       <c r="H2">
-        <v>14.37780188253867</v>
+        <v>9.380001747625027</v>
       </c>
       <c r="I2">
-        <v>20.6417696799914</v>
+        <v>15.9573275700836</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.54477112006325</v>
+        <v>21.17468621216265</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>15.40947398701308</v>
+        <v>18.94996852279677</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -471,37 +471,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>3.414013567003487</v>
+        <v>4.01725135534365</v>
       </c>
       <c r="D3">
-        <v>4.666857086176097</v>
+        <v>3.648886187730616</v>
       </c>
       <c r="E3">
-        <v>10.65758884208388</v>
+        <v>9.940730895570098</v>
       </c>
       <c r="F3">
-        <v>24.92639173636222</v>
+        <v>20.48313644506195</v>
       </c>
       <c r="G3">
-        <v>30.13935031644152</v>
+        <v>27.63048420824155</v>
       </c>
       <c r="H3">
-        <v>14.43623324354205</v>
+        <v>9.332382948352887</v>
       </c>
       <c r="I3">
-        <v>20.6769484384216</v>
+        <v>15.53510162389721</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.9738543449897</v>
+        <v>19.82297598214735</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>15.0921539315271</v>
+        <v>17.68904461982605</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -518,37 +518,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.363422214283655</v>
+        <v>3.895962449955984</v>
       </c>
       <c r="D4">
-        <v>4.663833046233505</v>
+        <v>3.639011006396323</v>
       </c>
       <c r="E4">
-        <v>10.62299286192739</v>
+        <v>9.618499876821897</v>
       </c>
       <c r="F4">
-        <v>24.92990634986318</v>
+        <v>20.03291196897352</v>
       </c>
       <c r="G4">
-        <v>30.11413693792126</v>
+        <v>26.89624445224475</v>
       </c>
       <c r="H4">
-        <v>14.47611594325838</v>
+        <v>9.316116811230339</v>
       </c>
       <c r="I4">
-        <v>20.70634394374765</v>
+        <v>15.2960530188932</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.611451105029</v>
+        <v>18.9481989093818</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>14.89735900020397</v>
+        <v>16.87439012336951</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -565,37 +565,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.342472347500905</v>
+        <v>3.845395144787039</v>
       </c>
       <c r="D5">
-        <v>4.662673076176831</v>
+        <v>3.635161819953202</v>
       </c>
       <c r="E5">
-        <v>10.61003428385933</v>
+        <v>9.487985975656899</v>
       </c>
       <c r="F5">
-        <v>24.93400347181082</v>
+        <v>19.85485301628739</v>
       </c>
       <c r="G5">
-        <v>30.10803028906526</v>
+        <v>26.60526974371663</v>
       </c>
       <c r="H5">
-        <v>14.49337088510514</v>
+        <v>9.312584645433066</v>
       </c>
       <c r="I5">
-        <v>20.72027159302756</v>
+        <v>15.20367119796039</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>12.46099294812715</v>
+        <v>18.58041671112789</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>14.81810142928583</v>
+        <v>16.53215438396823</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -612,37 +612,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.338974054252307</v>
+        <v>3.83693068881915</v>
       </c>
       <c r="D6">
-        <v>4.662484857284311</v>
+        <v>3.634533060430377</v>
       </c>
       <c r="E6">
-        <v>10.60795156179269</v>
+        <v>9.466366908360408</v>
       </c>
       <c r="F6">
-        <v>24.93484440075881</v>
+        <v>19.82561698109143</v>
       </c>
       <c r="G6">
-        <v>30.10726754672011</v>
+        <v>26.55745965160238</v>
       </c>
       <c r="H6">
-        <v>14.49629645588348</v>
+        <v>9.312180259286672</v>
       </c>
       <c r="I6">
-        <v>20.72270160660072</v>
+        <v>15.18863340958514</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>12.43584836798674</v>
+        <v>18.51866350614464</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>14.80495153127732</v>
+        <v>16.47470458284415</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -659,37 +659,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.363141002273546</v>
+        <v>3.895285052038488</v>
       </c>
       <c r="D7">
-        <v>4.663817108489829</v>
+        <v>3.638958394323785</v>
       </c>
       <c r="E7">
-        <v>10.62281347398639</v>
+        <v>9.616736291103472</v>
       </c>
       <c r="F7">
-        <v>24.92995083043905</v>
+        <v>20.03048852445072</v>
       </c>
       <c r="G7">
-        <v>30.11403772596294</v>
+        <v>26.89228652938591</v>
       </c>
       <c r="H7">
-        <v>14.47634459718655</v>
+        <v>9.316056858530105</v>
       </c>
       <c r="I7">
-        <v>20.70652390275199</v>
+        <v>15.29478682721081</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.60943292164753</v>
+        <v>18.94328466577077</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>14.89628945659395</v>
+        <v>16.86981625062493</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -706,37 +706,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>3.466807378733059</v>
+        <v>4.14268002356988</v>
       </c>
       <c r="D8">
-        <v>4.670329059141368</v>
+        <v>3.660040595906585</v>
       </c>
       <c r="E8">
-        <v>10.69837683984362</v>
+        <v>10.28691529729484</v>
       </c>
       <c r="F8">
-        <v>24.93177916754029</v>
+        <v>20.981688830926</v>
       </c>
       <c r="G8">
-        <v>30.18053637467053</v>
+        <v>28.44127537839162</v>
       </c>
       <c r="H8">
-        <v>14.39711477711846</v>
+        <v>9.360791836696775</v>
       </c>
       <c r="I8">
-        <v>20.65227478487001</v>
+        <v>15.80752948004787</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.35049562782715</v>
+        <v>20.71789323674811</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>15.30012038604344</v>
+        <v>18.52353836624864</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -753,37 +753,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3.658249548740771</v>
+        <v>4.589605685161366</v>
       </c>
       <c r="D9">
-        <v>4.685321552770036</v>
+        <v>3.707470140849534</v>
       </c>
       <c r="E9">
-        <v>10.88172066214005</v>
+        <v>11.61751271209053</v>
       </c>
       <c r="F9">
-        <v>25.02005248344666</v>
+        <v>23.00763985215068</v>
       </c>
       <c r="G9">
-        <v>30.44292801462057</v>
+        <v>31.71647355319883</v>
       </c>
       <c r="H9">
-        <v>14.27374006927208</v>
+        <v>9.558653775525967</v>
       </c>
       <c r="I9">
-        <v>20.60820250904826</v>
+        <v>16.97455630945878</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>14.7018683480434</v>
+        <v>23.84476859240001</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.08754730674318</v>
+        <v>21.45029868023815</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -800,37 +800,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>3.790763595016394</v>
+        <v>4.893578013337298</v>
       </c>
       <c r="D10">
-        <v>4.697645382844795</v>
+        <v>3.746617654335944</v>
       </c>
       <c r="E10">
-        <v>11.03701430325652</v>
+        <v>12.79474882403186</v>
       </c>
       <c r="F10">
-        <v>25.13671089341696</v>
+        <v>24.58734609782506</v>
       </c>
       <c r="G10">
-        <v>30.71578667293488</v>
+        <v>34.25386537478977</v>
       </c>
       <c r="H10">
-        <v>14.20288579795416</v>
+        <v>9.780702617526719</v>
       </c>
       <c r="I10">
-        <v>20.61434042141905</v>
+        <v>17.93163744063912</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>15.62386629588693</v>
+        <v>25.93158519324393</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>16.65715946334989</v>
+        <v>23.41539265866162</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -847,37 +847,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>3.849109995679255</v>
+        <v>5.02645016588349</v>
       </c>
       <c r="D11">
-        <v>4.703526130508123</v>
+        <v>3.765521771913696</v>
       </c>
       <c r="E11">
-        <v>11.11190766603669</v>
+        <v>13.34485785309944</v>
       </c>
       <c r="F11">
-        <v>25.20099782047386</v>
+        <v>25.32495634641183</v>
       </c>
       <c r="G11">
-        <v>30.85705832065243</v>
+        <v>35.43502806547942</v>
       </c>
       <c r="H11">
-        <v>14.17500805795168</v>
+        <v>9.900316623427557</v>
       </c>
       <c r="I11">
-        <v>20.62557969162646</v>
+        <v>18.38894234232158</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>16.02648064539623</v>
+        <v>26.8365870595251</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>16.91314030764267</v>
+        <v>24.27109006781307</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -894,37 +894,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>3.870913283447285</v>
+        <v>5.075984286696085</v>
       </c>
       <c r="D12">
-        <v>4.705791633936835</v>
+        <v>3.772853806019119</v>
       </c>
       <c r="E12">
-        <v>11.14085723761596</v>
+        <v>13.55129773593186</v>
       </c>
       <c r="F12">
-        <v>25.22694663086422</v>
+        <v>25.60698314649373</v>
       </c>
       <c r="G12">
-        <v>30.91298759236392</v>
+        <v>35.886142646416</v>
       </c>
       <c r="H12">
-        <v>14.16508225367095</v>
+        <v>9.948440701676599</v>
       </c>
       <c r="I12">
-        <v>20.63105471061141</v>
+        <v>18.5652988400556</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>16.17642653342772</v>
+        <v>27.17304849524241</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>17.00952818812696</v>
+        <v>24.58980306135845</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -941,37 +941,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>3.866230702814281</v>
+        <v>5.065351013042148</v>
       </c>
       <c r="D13">
-        <v>4.705302015103498</v>
+        <v>3.771266727435191</v>
       </c>
       <c r="E13">
-        <v>11.13459659709513</v>
+        <v>13.5069174509374</v>
       </c>
       <c r="F13">
-        <v>25.22128688912438</v>
+        <v>25.54612290362843</v>
       </c>
       <c r="G13">
-        <v>30.90083462666665</v>
+        <v>35.78881601717782</v>
       </c>
       <c r="H13">
-        <v>14.16719181995681</v>
+        <v>9.937948083454202</v>
       </c>
       <c r="I13">
-        <v>20.62982130342211</v>
+        <v>18.52717491651946</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>16.14424628751716</v>
+        <v>27.10086096525333</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>16.98879509288406</v>
+        <v>24.52139614648311</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -988,37 +988,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3.850909672392669</v>
+        <v>5.030541042279954</v>
       </c>
       <c r="D14">
-        <v>4.703711746527717</v>
+        <v>3.766121406708701</v>
       </c>
       <c r="E14">
-        <v>11.11427769035116</v>
+        <v>13.36187823583336</v>
       </c>
       <c r="F14">
-        <v>25.20310054361108</v>
+        <v>25.3481044936352</v>
       </c>
       <c r="G14">
-        <v>30.86161111375136</v>
+        <v>35.47206453824331</v>
       </c>
       <c r="H14">
-        <v>14.17417878533518</v>
+        <v>9.904218253939719</v>
       </c>
       <c r="I14">
-        <v>20.62600567645837</v>
+        <v>18.40338720497228</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>16.03886770770874</v>
+        <v>26.86439227770507</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>16.921081673846</v>
+        <v>24.29741633722211</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1035,37 +1035,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>3.841486805820619</v>
+        <v>5.009117082667012</v>
       </c>
       <c r="D15">
-        <v>4.702742660350692</v>
+        <v>3.76299285145843</v>
       </c>
       <c r="E15">
-        <v>11.10190780861194</v>
+        <v>13.27279916957466</v>
       </c>
       <c r="F15">
-        <v>25.19216955878241</v>
+        <v>25.22716562588608</v>
       </c>
       <c r="G15">
-        <v>30.83790129550517</v>
+        <v>35.27854507784279</v>
       </c>
       <c r="H15">
-        <v>14.17854080271289</v>
+        <v>9.883930679329472</v>
       </c>
       <c r="I15">
-        <v>20.62382733719797</v>
+        <v>18.32797975514087</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>15.97399003531795</v>
+        <v>26.71873939999001</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>16.87953135262467</v>
+        <v>24.15953485818017</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1082,37 +1082,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3.786910449309773</v>
+        <v>4.884785249396177</v>
       </c>
       <c r="D16">
-        <v>4.697266511219551</v>
+        <v>3.745405578512824</v>
       </c>
       <c r="E16">
-        <v>11.03220351437295</v>
+        <v>12.75852529105989</v>
       </c>
       <c r="F16">
-        <v>25.13273468997657</v>
+        <v>24.53952076854777</v>
       </c>
       <c r="G16">
-        <v>30.7068966296605</v>
+        <v>34.17720972865041</v>
       </c>
       <c r="H16">
-        <v>14.20479570202869</v>
+        <v>9.773273107948164</v>
       </c>
       <c r="I16">
-        <v>20.61377628776415</v>
+        <v>17.90219498746059</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>15.59720751947583</v>
+        <v>25.87156024916131</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>16.64035908737608</v>
+        <v>23.35871615303924</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1129,37 +1129,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>3.752924448382838</v>
+        <v>4.807122531855413</v>
       </c>
       <c r="D17">
-        <v>4.69397676384213</v>
+        <v>3.734907561147286</v>
       </c>
       <c r="E17">
-        <v>10.99051547097069</v>
+        <v>12.43949742885357</v>
       </c>
       <c r="F17">
-        <v>25.09914169638948</v>
+        <v>24.12250698291577</v>
       </c>
       <c r="G17">
-        <v>30.63090014632042</v>
+        <v>33.50841020364103</v>
       </c>
       <c r="H17">
-        <v>14.22202088474932</v>
+        <v>9.710263280774837</v>
       </c>
       <c r="I17">
-        <v>20.60977734908554</v>
+        <v>17.64662232437372</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>15.36168383755475</v>
+        <v>25.34058209155681</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>16.49276122148814</v>
+        <v>22.85776722328931</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1176,37 +1176,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>3.733195181749527</v>
+        <v>4.761944074990058</v>
       </c>
       <c r="D18">
-        <v>4.692110486237582</v>
+        <v>3.728971427119527</v>
       </c>
       <c r="E18">
-        <v>10.96693902355396</v>
+        <v>12.25464539998073</v>
       </c>
       <c r="F18">
-        <v>25.08087654997868</v>
+        <v>23.8844379570546</v>
       </c>
       <c r="G18">
-        <v>30.5888053756257</v>
+        <v>33.12626185134512</v>
       </c>
       <c r="H18">
-        <v>14.23233791869568</v>
+        <v>9.675763730494284</v>
       </c>
       <c r="I18">
-        <v>20.60827219319939</v>
+        <v>17.50168443196521</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.22463972065647</v>
+        <v>25.03099901823262</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.40757674683019</v>
+        <v>22.56602422588819</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1223,37 +1223,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3.726484446543093</v>
+        <v>4.746560222354386</v>
       </c>
       <c r="D19">
-        <v>4.691483071792785</v>
+        <v>3.72697863528886</v>
       </c>
       <c r="E19">
-        <v>10.95902602942254</v>
+        <v>12.19181987219583</v>
       </c>
       <c r="F19">
-        <v>25.0748739686057</v>
+        <v>23.80414012920087</v>
       </c>
       <c r="G19">
-        <v>30.57483130992561</v>
+        <v>32.99730962881119</v>
       </c>
       <c r="H19">
-        <v>14.23590128479162</v>
+        <v>9.664377237823954</v>
       </c>
       <c r="I19">
-        <v>20.6078989463075</v>
+        <v>17.45296420480492</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.1779713228268</v>
+        <v>24.92545823579496</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.37868792016904</v>
+        <v>22.46661988172379</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1270,37 +1270,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>3.756561189892278</v>
+        <v>4.81544257659167</v>
       </c>
       <c r="D20">
-        <v>4.694324289193313</v>
+        <v>3.736014423943441</v>
       </c>
       <c r="E20">
-        <v>10.99491184383591</v>
+        <v>12.47359759181697</v>
       </c>
       <c r="F20">
-        <v>25.10260841884933</v>
+        <v>24.16671425454036</v>
       </c>
       <c r="G20">
-        <v>30.63882302646252</v>
+        <v>33.57934401708783</v>
       </c>
       <c r="H20">
-        <v>14.22014481148872</v>
+        <v>9.716789367602843</v>
       </c>
       <c r="I20">
-        <v>20.61012073506751</v>
+        <v>17.67361501888522</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>15.38691972467665</v>
+        <v>25.39753720891262</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>16.50850399710716</v>
+        <v>22.9114665356113</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1317,37 +1317,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>3.855417832284082</v>
+        <v>5.040786800746575</v>
       </c>
       <c r="D21">
-        <v>4.704177806716121</v>
+        <v>3.767627865771653</v>
       </c>
       <c r="E21">
-        <v>11.12023004156952</v>
+        <v>13.40452908604487</v>
       </c>
       <c r="F21">
-        <v>25.2083988458383</v>
+        <v>25.40619367493681</v>
       </c>
       <c r="G21">
-        <v>30.8730662842467</v>
+        <v>35.56499785356146</v>
       </c>
       <c r="H21">
-        <v>14.17210938484039</v>
+        <v>9.914047535099197</v>
       </c>
       <c r="I21">
-        <v>20.62709331062729</v>
+        <v>18.43965985402543</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.06988892970691</v>
+        <v>26.93401720309019</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>16.94098630808078</v>
+        <v>24.3633475424029</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1364,37 +1364,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>3.918323612336096</v>
+        <v>5.183507199858307</v>
       </c>
       <c r="D22">
-        <v>4.710842175823815</v>
+        <v>3.789309311469974</v>
       </c>
       <c r="E22">
-        <v>11.20555505121494</v>
+        <v>14.00212367261881</v>
       </c>
       <c r="F22">
-        <v>25.28688640956518</v>
+        <v>26.2320880017466</v>
       </c>
       <c r="G22">
-        <v>31.04031748941695</v>
+        <v>36.91016742734639</v>
       </c>
       <c r="H22">
-        <v>14.14439487304274</v>
+        <v>10.05952588747632</v>
       </c>
       <c r="I22">
-        <v>20.64529167954316</v>
+        <v>18.95891084900904</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.50155151267905</v>
+        <v>27.901877004648</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>17.22041303857533</v>
+        <v>25.28131692538835</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1411,37 +1411,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3.884909422345984</v>
+        <v>5.107751682150838</v>
       </c>
       <c r="D23">
-        <v>4.707265028516093</v>
+        <v>3.777638256774098</v>
       </c>
       <c r="E23">
-        <v>11.15971001555828</v>
+        <v>13.68410037727404</v>
       </c>
       <c r="F23">
-        <v>25.24414449143748</v>
+        <v>25.78983832389256</v>
       </c>
       <c r="G23">
-        <v>30.94976949927214</v>
+        <v>36.17849075891208</v>
       </c>
       <c r="H23">
-        <v>14.15884842908872</v>
+        <v>9.98031596074695</v>
       </c>
       <c r="I23">
-        <v>20.63492769608668</v>
+        <v>18.68005878675319</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.27253861218459</v>
+        <v>27.38858875976952</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>17.07160278879966</v>
+        <v>24.79414487760186</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1458,37 +1458,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3.754917610682182</v>
+        <v>4.811682732100864</v>
       </c>
       <c r="D24">
-        <v>4.694167094894748</v>
+        <v>3.735513703097842</v>
       </c>
       <c r="E24">
-        <v>10.99292302547614</v>
+        <v>12.45818540234299</v>
       </c>
       <c r="F24">
-        <v>25.10103784888208</v>
+        <v>24.14672291886592</v>
       </c>
       <c r="G24">
-        <v>30.63523611665418</v>
+        <v>33.54726750588669</v>
       </c>
       <c r="H24">
-        <v>14.22099169483775</v>
+        <v>9.713833560434693</v>
       </c>
       <c r="I24">
-        <v>20.60996301772386</v>
+        <v>17.66140541222134</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>15.37551567577958</v>
+        <v>25.37180125520948</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>16.50138770414811</v>
+        <v>22.88720074134964</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1505,37 +1505,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3.607826832659305</v>
+        <v>4.472925487308839</v>
       </c>
       <c r="D25">
-        <v>4.681032473701799</v>
+        <v>3.693932111600483</v>
       </c>
       <c r="E25">
-        <v>10.82843537574903</v>
+        <v>11.25629149786134</v>
       </c>
       <c r="F25">
-        <v>24.9870744235303</v>
+        <v>22.44313549090793</v>
       </c>
       <c r="G25">
-        <v>30.35782239858454</v>
+        <v>30.80661788946147</v>
       </c>
       <c r="H25">
-        <v>14.30366115897566</v>
+        <v>9.492333674211961</v>
       </c>
       <c r="I25">
-        <v>20.61339390205103</v>
+        <v>16.64140819335632</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>14.34817812173327</v>
+        <v>23.03623937823827</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.87566230597939</v>
+        <v>20.69165669955148</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,37 +430,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.207179217182821</v>
+        <v>5.81290999176109</v>
       </c>
       <c r="D2">
-        <v>3.666146015590044</v>
+        <v>5.882797367699609</v>
       </c>
       <c r="E2">
-        <v>10.46981568792263</v>
+        <v>31.70943857099828</v>
       </c>
       <c r="F2">
-        <v>21.2505745137221</v>
+        <v>48.96028846465081</v>
       </c>
       <c r="G2">
-        <v>28.8776676110654</v>
+        <v>78.35874146206218</v>
       </c>
       <c r="H2">
-        <v>9.380001747625027</v>
+        <v>4.508623181810298</v>
       </c>
       <c r="I2">
-        <v>15.9573275700836</v>
+        <v>6.315847621611045</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>20.11510648084452</v>
       </c>
       <c r="K2">
-        <v>21.17468621216265</v>
+        <v>36.75783147786804</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>18.94996852279677</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,8 +468,14 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>25.60720851682374</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,37 +483,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.01725135534365</v>
+        <v>5.476283488404221</v>
       </c>
       <c r="D3">
-        <v>3.648886187730616</v>
+        <v>5.577206301311223</v>
       </c>
       <c r="E3">
-        <v>9.940730895570098</v>
+        <v>29.60201470016276</v>
       </c>
       <c r="F3">
-        <v>20.48313644506195</v>
+        <v>45.78101650617577</v>
       </c>
       <c r="G3">
-        <v>27.63048420824155</v>
+        <v>73.07927811572745</v>
       </c>
       <c r="H3">
-        <v>9.332382948352887</v>
+        <v>4.128143873914502</v>
       </c>
       <c r="I3">
-        <v>15.53510162389721</v>
+        <v>5.896264002061066</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>18.94902316691962</v>
       </c>
       <c r="K3">
-        <v>19.82297598214735</v>
+        <v>34.47844167136919</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>17.68904461982605</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -509,8 +521,14 @@
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>24.22561817997339</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,37 +536,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>3.895962449955984</v>
+        <v>5.267365311267043</v>
       </c>
       <c r="D4">
-        <v>3.639011006396323</v>
+        <v>5.380151860579743</v>
       </c>
       <c r="E4">
-        <v>9.618499876821897</v>
+        <v>28.24550122535082</v>
       </c>
       <c r="F4">
-        <v>20.03291196897352</v>
+        <v>43.73226097665594</v>
       </c>
       <c r="G4">
-        <v>26.89624445224475</v>
+        <v>69.66585211562834</v>
       </c>
       <c r="H4">
-        <v>9.316116811230339</v>
+        <v>3.888676275709911</v>
       </c>
       <c r="I4">
-        <v>15.2960530188932</v>
+        <v>5.633010566672722</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>18.20232497909531</v>
       </c>
       <c r="K4">
-        <v>18.9481989093818</v>
+        <v>33.00986460339159</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>16.87439012336951</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -556,8 +574,14 @@
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>23.33595077662917</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,37 +589,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.845395144787039</v>
+        <v>5.185096435348237</v>
       </c>
       <c r="D5">
-        <v>3.635161819953202</v>
+        <v>5.293069502555697</v>
       </c>
       <c r="E5">
-        <v>9.487985975656899</v>
+        <v>27.67552691287518</v>
       </c>
       <c r="F5">
-        <v>19.85485301628739</v>
+        <v>42.8526071687137</v>
       </c>
       <c r="G5">
-        <v>26.60526974371663</v>
+        <v>68.19518990837831</v>
       </c>
       <c r="H5">
-        <v>9.312584645433066</v>
+        <v>3.788933465863245</v>
       </c>
       <c r="I5">
-        <v>15.20367119796039</v>
+        <v>5.522924748641855</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>17.88205005526229</v>
       </c>
       <c r="K5">
-        <v>18.58041671112789</v>
+        <v>32.37382049593447</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>16.53215438396823</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -603,8 +627,14 @@
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>22.96331756195408</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,37 +642,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>3.83693068881915</v>
+        <v>5.175744746525528</v>
       </c>
       <c r="D6">
-        <v>3.634533060430377</v>
+        <v>5.2730443613922</v>
       </c>
       <c r="E6">
-        <v>9.466366908360408</v>
+        <v>27.57836768226667</v>
       </c>
       <c r="F6">
-        <v>19.82561698109143</v>
+        <v>42.6800338289716</v>
       </c>
       <c r="G6">
-        <v>26.55745965160238</v>
+        <v>67.90407798612715</v>
       </c>
       <c r="H6">
-        <v>9.312180259286672</v>
+        <v>3.771539235082587</v>
       </c>
       <c r="I6">
-        <v>15.18863340958514</v>
+        <v>5.503076206387323</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>17.81815991783123</v>
       </c>
       <c r="K6">
-        <v>18.51866350614464</v>
+        <v>32.24231470542209</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>16.47470458284415</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -650,8 +680,14 @@
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>22.90084339962192</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,37 +695,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>3.895285052038488</v>
+        <v>5.277845346361651</v>
       </c>
       <c r="D7">
-        <v>3.638958394323785</v>
+        <v>5.364404853883673</v>
       </c>
       <c r="E7">
-        <v>9.616736291103472</v>
+        <v>28.23366107979991</v>
       </c>
       <c r="F7">
-        <v>20.03048852445072</v>
+        <v>43.65352349915793</v>
       </c>
       <c r="G7">
-        <v>26.89228652938591</v>
+        <v>69.52790767437959</v>
       </c>
       <c r="H7">
-        <v>9.316056858530105</v>
+        <v>3.88533082059444</v>
       </c>
       <c r="I7">
-        <v>15.29478682721081</v>
+        <v>5.627349108907494</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>18.17053369323629</v>
       </c>
       <c r="K7">
-        <v>18.94328466577077</v>
+        <v>32.93482136547895</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>16.86981625062493</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -697,8 +733,14 @@
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>23.33096569062624</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,37 +748,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.14268002356988</v>
+        <v>5.711538864534413</v>
       </c>
       <c r="D8">
-        <v>3.660040595906585</v>
+        <v>5.76111456888132</v>
       </c>
       <c r="E8">
-        <v>10.28691529729484</v>
+        <v>30.99010587692531</v>
       </c>
       <c r="F8">
-        <v>20.981688830926</v>
+        <v>47.80144699559437</v>
       </c>
       <c r="G8">
-        <v>28.44127537839162</v>
+        <v>76.42832011090294</v>
       </c>
       <c r="H8">
-        <v>9.360791836696775</v>
+        <v>4.3759460494204</v>
       </c>
       <c r="I8">
-        <v>15.80752948004787</v>
+        <v>6.16658682977217</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>19.68522689146278</v>
       </c>
       <c r="K8">
-        <v>20.71789323674811</v>
+        <v>35.90387383830262</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>18.52353836624864</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -744,8 +786,14 @@
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>25.1395913014106</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,37 +801,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4.589605685161366</v>
+        <v>6.529905363297456</v>
       </c>
       <c r="D9">
-        <v>3.707470140849534</v>
+        <v>6.487981108763649</v>
       </c>
       <c r="E9">
-        <v>11.61751271209053</v>
+        <v>35.91686512494876</v>
       </c>
       <c r="F9">
-        <v>23.00763985215068</v>
+        <v>55.28127856423394</v>
       </c>
       <c r="G9">
-        <v>31.71647355319883</v>
+        <v>88.80415756631656</v>
       </c>
       <c r="H9">
-        <v>9.558653775525967</v>
+        <v>5.299345371975672</v>
       </c>
       <c r="I9">
-        <v>16.97455630945878</v>
+        <v>7.192365560278549</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>22.45435441575678</v>
       </c>
       <c r="K9">
-        <v>23.84476859240001</v>
+        <v>41.28688823651867</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>21.45029868023815</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -791,8 +839,14 @@
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>28.34722074380644</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,37 +854,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4.893578013337298</v>
+        <v>7.096983695870518</v>
       </c>
       <c r="D10">
-        <v>3.746617654335944</v>
+        <v>6.907646974281442</v>
       </c>
       <c r="E10">
-        <v>12.79474882403186</v>
+        <v>38.37301729541556</v>
       </c>
       <c r="F10">
-        <v>24.58734609782506</v>
+        <v>60.01878559574629</v>
       </c>
       <c r="G10">
-        <v>34.25386537478977</v>
+        <v>96.55967899849716</v>
       </c>
       <c r="H10">
-        <v>9.780702617526719</v>
+        <v>5.906691318258829</v>
       </c>
       <c r="I10">
-        <v>17.93163744063912</v>
+        <v>7.901838107766195</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>24.20881488796974</v>
       </c>
       <c r="K10">
-        <v>25.93158519324393</v>
+        <v>44.67357343661379</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.41539265866162</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -838,8 +892,14 @@
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>30.48602834203865</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,37 +907,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.02645016588349</v>
+        <v>7.067502869414917</v>
       </c>
       <c r="D11">
-        <v>3.765521771913696</v>
+        <v>6.536561390639531</v>
       </c>
       <c r="E11">
-        <v>13.34485785309944</v>
+        <v>32.01369723414992</v>
       </c>
       <c r="F11">
-        <v>25.32495634641183</v>
+        <v>59.58938851759937</v>
       </c>
       <c r="G11">
-        <v>35.43502806547942</v>
+        <v>95.50910082633175</v>
       </c>
       <c r="H11">
-        <v>9.900316623427557</v>
+        <v>6.12187738939969</v>
       </c>
       <c r="I11">
-        <v>18.38894234232158</v>
+        <v>8.000900757680213</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>23.92319237038819</v>
       </c>
       <c r="K11">
-        <v>26.8365870595251</v>
+        <v>44.23857626067476</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>24.27109006781307</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -885,8 +945,14 @@
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>31.41016321374476</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,37 +960,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.075984286696085</v>
+        <v>6.945582178991816</v>
       </c>
       <c r="D12">
-        <v>3.772853806019119</v>
+        <v>6.154540445503659</v>
       </c>
       <c r="E12">
-        <v>13.55129773593186</v>
+        <v>26.3317011424218</v>
       </c>
       <c r="F12">
-        <v>25.60698314649373</v>
+        <v>58.30439331301249</v>
       </c>
       <c r="G12">
-        <v>35.886142646416</v>
+        <v>93.16476360359302</v>
       </c>
       <c r="H12">
-        <v>9.948440701676599</v>
+        <v>6.667947351712282</v>
       </c>
       <c r="I12">
-        <v>18.5652988400556</v>
+        <v>7.956931447595664</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>23.34824488120333</v>
       </c>
       <c r="K12">
-        <v>27.17304849524241</v>
+        <v>43.24960205737396</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>24.58980306135845</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -932,8 +998,14 @@
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>31.75299711977163</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,37 +1013,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.065351013042148</v>
+        <v>6.759596617349032</v>
       </c>
       <c r="D13">
-        <v>3.771266727435191</v>
+        <v>5.714785334739742</v>
       </c>
       <c r="E13">
-        <v>13.5069174509374</v>
+        <v>20.80849829880494</v>
       </c>
       <c r="F13">
-        <v>25.54612290362843</v>
+        <v>56.16657479524634</v>
       </c>
       <c r="G13">
-        <v>35.78881601717782</v>
+        <v>89.4769682398265</v>
       </c>
       <c r="H13">
-        <v>9.937948083454202</v>
+        <v>7.418804429432933</v>
       </c>
       <c r="I13">
-        <v>18.52717491651946</v>
+        <v>7.796206737138676</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>22.46719509295746</v>
       </c>
       <c r="K13">
-        <v>27.10086096525333</v>
+        <v>41.66779540582976</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>24.52139614648311</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -979,8 +1051,14 @@
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>31.67947945617575</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,37 +1066,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.030541042279954</v>
+        <v>6.607669977004798</v>
       </c>
       <c r="D14">
-        <v>3.766121406708701</v>
+        <v>5.374297284271606</v>
       </c>
       <c r="E14">
-        <v>13.36187823583336</v>
+        <v>17.18138599150665</v>
       </c>
       <c r="F14">
-        <v>25.3481044936352</v>
+        <v>54.24565338162173</v>
       </c>
       <c r="G14">
-        <v>35.47206453824331</v>
+        <v>86.21852184928873</v>
       </c>
       <c r="H14">
-        <v>9.904218253939719</v>
+        <v>8.048260173260052</v>
       </c>
       <c r="I14">
-        <v>18.40338720497228</v>
+        <v>7.633148309243803</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>21.69612496968193</v>
       </c>
       <c r="K14">
-        <v>26.86439227770507</v>
+        <v>40.2596064856092</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>24.29741633722211</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1026,8 +1104,14 @@
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>31.43851144188476</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,37 +1119,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.009117082667012</v>
+        <v>6.55341671124908</v>
       </c>
       <c r="D15">
-        <v>3.76299285145843</v>
+        <v>5.273915562295598</v>
       </c>
       <c r="E15">
-        <v>13.27279916957466</v>
+        <v>16.31968848113668</v>
       </c>
       <c r="F15">
-        <v>25.22716562588608</v>
+        <v>53.57889533110647</v>
       </c>
       <c r="G15">
-        <v>35.27854507784279</v>
+        <v>85.08883979985301</v>
       </c>
       <c r="H15">
-        <v>9.883930679329472</v>
+        <v>8.189483658985864</v>
       </c>
       <c r="I15">
-        <v>18.32797975514087</v>
+        <v>7.565631965580661</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>21.43234096595934</v>
       </c>
       <c r="K15">
-        <v>26.71873939999001</v>
+        <v>39.76474102122882</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>24.15953485818017</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1073,8 +1157,14 @@
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>31.28998244549472</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,37 +1172,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>4.884785249396177</v>
+        <v>6.353780472717709</v>
       </c>
       <c r="D16">
-        <v>3.745405578512824</v>
+        <v>5.158926431691659</v>
       </c>
       <c r="E16">
-        <v>12.75852529105989</v>
+        <v>15.95536887157138</v>
       </c>
       <c r="F16">
-        <v>24.53952076854777</v>
+        <v>51.87513169011471</v>
       </c>
       <c r="G16">
-        <v>34.17720972865041</v>
+        <v>82.31697222171555</v>
       </c>
       <c r="H16">
-        <v>9.773273107948164</v>
+        <v>7.86426003245835</v>
       </c>
       <c r="I16">
-        <v>17.90219498746059</v>
+        <v>7.300960829506923</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>20.81459684236987</v>
       </c>
       <c r="K16">
-        <v>25.87156024916131</v>
+        <v>38.54795355809768</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.35871615303924</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1120,8 +1210,14 @@
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>30.42464283346099</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,37 +1225,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>4.807122531855413</v>
+        <v>6.27853545929819</v>
       </c>
       <c r="D17">
-        <v>3.734907561147286</v>
+        <v>5.25568181858416</v>
       </c>
       <c r="E17">
-        <v>12.43949742885357</v>
+        <v>17.58900354301582</v>
       </c>
       <c r="F17">
-        <v>24.12250698291577</v>
+        <v>51.59973768808423</v>
       </c>
       <c r="G17">
-        <v>33.50841020364103</v>
+        <v>81.96477037005572</v>
       </c>
       <c r="H17">
-        <v>9.710263280774837</v>
+        <v>7.224423085234672</v>
       </c>
       <c r="I17">
-        <v>17.64662232437372</v>
+        <v>7.181625411721111</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>20.76052792232814</v>
       </c>
       <c r="K17">
-        <v>25.34058209155681</v>
+        <v>38.37928926428093</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>22.85776722328931</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1167,8 +1263,14 @@
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>29.88120505119274</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,37 +1278,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>4.761944074990058</v>
+        <v>6.316964966369526</v>
       </c>
       <c r="D18">
-        <v>3.728971427119527</v>
+        <v>5.559160589308992</v>
       </c>
       <c r="E18">
-        <v>12.25464539998073</v>
+        <v>21.62287319569178</v>
       </c>
       <c r="F18">
-        <v>23.8844379570546</v>
+        <v>52.59254043599337</v>
       </c>
       <c r="G18">
-        <v>33.12626185134512</v>
+        <v>83.7808419521278</v>
       </c>
       <c r="H18">
-        <v>9.675763730494284</v>
+        <v>6.359693560187976</v>
       </c>
       <c r="I18">
-        <v>17.50168443196521</v>
+        <v>7.184016560559884</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>21.21082918314325</v>
       </c>
       <c r="K18">
-        <v>25.03099901823262</v>
+        <v>39.15588942091862</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>22.56602422588819</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1214,8 +1316,14 @@
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>29.5640428768043</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,37 +1331,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4.746560222354386</v>
+        <v>6.482592529795673</v>
       </c>
       <c r="D19">
-        <v>3.72697863528886</v>
+        <v>5.984676916403714</v>
       </c>
       <c r="E19">
-        <v>12.19181987219583</v>
+        <v>27.56225837072644</v>
       </c>
       <c r="F19">
-        <v>23.80414012920087</v>
+        <v>54.42045275496923</v>
       </c>
       <c r="G19">
-        <v>32.99730962881119</v>
+        <v>87.01328474911566</v>
       </c>
       <c r="H19">
-        <v>9.664377237823954</v>
+        <v>5.662715362700053</v>
       </c>
       <c r="I19">
-        <v>17.45296420480492</v>
+        <v>7.29125792741684</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>21.98468597503069</v>
       </c>
       <c r="K19">
-        <v>24.92545823579496</v>
+        <v>40.52525368217881</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>22.46661988172379</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1261,8 +1369,14 @@
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>29.45587200880252</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,37 +1384,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4.81544257659167</v>
+        <v>6.974858732037907</v>
       </c>
       <c r="D20">
-        <v>3.736014423943441</v>
+        <v>6.759373452742874</v>
       </c>
       <c r="E20">
-        <v>12.47359759181697</v>
+        <v>37.68505164761227</v>
       </c>
       <c r="F20">
-        <v>24.16671425454036</v>
+        <v>58.61762863543169</v>
       </c>
       <c r="G20">
-        <v>33.57934401708783</v>
+        <v>94.25560629948131</v>
       </c>
       <c r="H20">
-        <v>9.716789367602843</v>
+        <v>5.73906157076406</v>
       </c>
       <c r="I20">
-        <v>17.67361501888522</v>
+        <v>7.703250129022011</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>23.68176381469977</v>
       </c>
       <c r="K20">
-        <v>25.39753720891262</v>
+        <v>43.62757570522837</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>22.9114665356113</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1308,8 +1422,14 @@
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>29.93953086719064</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,37 +1437,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.040786800746575</v>
+        <v>7.462549857700592</v>
       </c>
       <c r="D21">
-        <v>3.767627865771653</v>
+        <v>7.173861734743403</v>
       </c>
       <c r="E21">
-        <v>13.40452908604487</v>
+        <v>40.86423188850794</v>
       </c>
       <c r="F21">
-        <v>25.40619367493681</v>
+        <v>62.67754257423428</v>
       </c>
       <c r="G21">
-        <v>35.56499785356146</v>
+        <v>100.8248857065319</v>
       </c>
       <c r="H21">
-        <v>9.914047535099197</v>
+        <v>6.281567089414887</v>
       </c>
       <c r="I21">
-        <v>18.43965985402543</v>
+        <v>8.287878922344948</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>25.20622142663455</v>
       </c>
       <c r="K21">
-        <v>26.93401720309019</v>
+        <v>46.50133713644972</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>24.3633475424029</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1355,8 +1475,14 @@
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>31.50948335633596</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,37 +1490,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.183507199858307</v>
+        <v>7.753455715882732</v>
       </c>
       <c r="D22">
-        <v>3.789309311469974</v>
+        <v>7.41936638303033</v>
       </c>
       <c r="E22">
-        <v>14.00212367261881</v>
+        <v>42.44737907079411</v>
       </c>
       <c r="F22">
-        <v>26.2320880017466</v>
+        <v>65.18638117355715</v>
       </c>
       <c r="G22">
-        <v>36.91016742734639</v>
+        <v>104.8517145933608</v>
       </c>
       <c r="H22">
-        <v>10.05952588747632</v>
+        <v>6.611444878957134</v>
       </c>
       <c r="I22">
-        <v>18.95891084900904</v>
+        <v>8.661976765639471</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>26.21047107532996</v>
       </c>
       <c r="K22">
-        <v>27.901877004648</v>
+        <v>48.27834124186472</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.28131692538835</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1402,8 +1528,14 @@
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>32.49403281050594</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,37 +1543,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.107751682150838</v>
+        <v>7.587632000774285</v>
       </c>
       <c r="D23">
-        <v>3.777638256774098</v>
+        <v>7.302809185747</v>
       </c>
       <c r="E23">
-        <v>13.68410037727404</v>
+        <v>41.61156609943381</v>
       </c>
       <c r="F23">
-        <v>25.78983832389256</v>
+        <v>63.91510647452524</v>
       </c>
       <c r="G23">
-        <v>36.17849075891208</v>
+        <v>102.8146616070684</v>
       </c>
       <c r="H23">
-        <v>9.98031596074695</v>
+        <v>6.437880905180476</v>
       </c>
       <c r="I23">
-        <v>18.68005878675319</v>
+        <v>8.466806490537088</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>25.70366540176713</v>
       </c>
       <c r="K23">
-        <v>27.38858875976952</v>
+        <v>47.39506173968287</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>24.79414487760186</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1449,8 +1581,14 @@
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>31.97238356075506</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,37 +1596,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>4.811682732100864</v>
+        <v>6.980055552219541</v>
       </c>
       <c r="D24">
-        <v>3.735513703097842</v>
+        <v>6.824472738623201</v>
       </c>
       <c r="E24">
-        <v>12.45818540234299</v>
+        <v>38.34926912667974</v>
       </c>
       <c r="F24">
-        <v>24.14672291886592</v>
+        <v>58.87705132811013</v>
       </c>
       <c r="G24">
-        <v>33.54726750588669</v>
+        <v>94.717337789781</v>
       </c>
       <c r="H24">
-        <v>9.713833560434693</v>
+        <v>5.774674911021691</v>
       </c>
       <c r="I24">
-        <v>17.66140541222134</v>
+        <v>7.720751183124635</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>23.79257025786032</v>
       </c>
       <c r="K24">
-        <v>25.37180125520948</v>
+        <v>43.84765795980496</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>22.88720074134964</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1496,8 +1634,14 @@
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>29.91317649911916</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,42 +1649,48 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>4.472925487308839</v>
+        <v>6.327339094548819</v>
       </c>
       <c r="D25">
-        <v>3.693932111600483</v>
+        <v>6.276165985042505</v>
       </c>
       <c r="E25">
-        <v>11.25629149786134</v>
+        <v>34.62685944458568</v>
       </c>
       <c r="F25">
-        <v>22.44313549090793</v>
+        <v>53.23496014724823</v>
       </c>
       <c r="G25">
-        <v>30.80661788946147</v>
+        <v>85.41593450689994</v>
       </c>
       <c r="H25">
-        <v>9.492333674211961</v>
+        <v>5.049804101840061</v>
       </c>
       <c r="I25">
-        <v>16.64140819335632</v>
+        <v>6.911040494880842</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>21.688510319772</v>
       </c>
       <c r="K25">
-        <v>23.03623937823827</v>
+        <v>39.78553483420213</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>20.69165669955148</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>27.51708508088413</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,37 +436,37 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.81290999176109</v>
+        <v>7.80965504426494</v>
       </c>
       <c r="D2">
-        <v>5.882797367699609</v>
+        <v>4.72135191548724</v>
       </c>
       <c r="E2">
-        <v>31.70943857099828</v>
+        <v>31.02325130062536</v>
       </c>
       <c r="F2">
-        <v>48.96028846465081</v>
+        <v>43.00011966743082</v>
       </c>
       <c r="G2">
-        <v>78.35874146206218</v>
+        <v>67.58421418928681</v>
       </c>
       <c r="H2">
-        <v>4.508623181810298</v>
+        <v>4.171896468234165</v>
       </c>
       <c r="I2">
-        <v>6.315847621611045</v>
+        <v>5.62094083010711</v>
       </c>
       <c r="J2">
-        <v>20.11510648084452</v>
+        <v>18.22876112732948</v>
       </c>
       <c r="K2">
-        <v>36.75783147786804</v>
+        <v>30.92381528031239</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>25.37085815767046</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>21.70912978288948</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -469,13 +475,19 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>25.60720851682374</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>25.60720851682375</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,37 +495,37 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.476283488404221</v>
+        <v>7.254248523902837</v>
       </c>
       <c r="D3">
-        <v>5.577206301311223</v>
+        <v>4.537502148438418</v>
       </c>
       <c r="E3">
-        <v>29.60201470016276</v>
+        <v>29.01186468340735</v>
       </c>
       <c r="F3">
-        <v>45.78101650617577</v>
+        <v>40.39875012971418</v>
       </c>
       <c r="G3">
-        <v>73.07927811572745</v>
+        <v>63.24789390160375</v>
       </c>
       <c r="H3">
-        <v>4.128143873914502</v>
+        <v>3.839529955568123</v>
       </c>
       <c r="I3">
-        <v>5.896264002061066</v>
+        <v>5.301108205815012</v>
       </c>
       <c r="J3">
-        <v>18.94902316691962</v>
+        <v>17.31484231500527</v>
       </c>
       <c r="K3">
-        <v>34.47844167136919</v>
+        <v>29.21005986426836</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>24.43794352519688</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>20.00042202461954</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -522,13 +534,19 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>24.22561817997339</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>24.2256181799734</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,37 +554,37 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.267365311267043</v>
+        <v>6.903319987125606</v>
       </c>
       <c r="D4">
-        <v>5.380151860579743</v>
+        <v>4.418148880532367</v>
       </c>
       <c r="E4">
-        <v>28.24550122535082</v>
+        <v>27.71344270128138</v>
       </c>
       <c r="F4">
-        <v>43.73226097665594</v>
+        <v>38.71921214718439</v>
       </c>
       <c r="G4">
-        <v>69.66585211562834</v>
+        <v>60.44007182197009</v>
       </c>
       <c r="H4">
-        <v>3.888676275709911</v>
+        <v>3.629466177602831</v>
       </c>
       <c r="I4">
-        <v>5.633010566672722</v>
+        <v>5.099544855362739</v>
       </c>
       <c r="J4">
-        <v>18.20232497909531</v>
+        <v>16.72728490363857</v>
       </c>
       <c r="K4">
-        <v>33.00986460339159</v>
+        <v>28.10388502763415</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>23.83083155020628</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>18.89976112251784</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -575,13 +593,19 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>23.33595077662917</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>23.33595077662918</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,37 +613,37 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.185096435348237</v>
+        <v>6.766443561902862</v>
       </c>
       <c r="D5">
-        <v>5.293069502555697</v>
+        <v>4.36433809311013</v>
       </c>
       <c r="E5">
-        <v>27.67552691287518</v>
+        <v>27.16736185600619</v>
       </c>
       <c r="F5">
-        <v>42.8526071687137</v>
+        <v>37.99589337435958</v>
       </c>
       <c r="G5">
-        <v>68.19518990837831</v>
+        <v>59.22662297362405</v>
       </c>
       <c r="H5">
-        <v>3.788933465863245</v>
+        <v>3.541842532193287</v>
       </c>
       <c r="I5">
-        <v>5.522924748641855</v>
+        <v>5.015242923474671</v>
       </c>
       <c r="J5">
-        <v>17.88205005526229</v>
+        <v>16.47400966657733</v>
       </c>
       <c r="K5">
-        <v>32.37382049593447</v>
+        <v>27.62168619486932</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>23.56141295119078</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>18.42463634971351</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -628,13 +652,19 @@
         <v>0</v>
       </c>
       <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
         <v>22.96331756195408</v>
       </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,37 +672,37 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.175744746525528</v>
+        <v>6.754155138868144</v>
       </c>
       <c r="D6">
-        <v>5.2730443613922</v>
+        <v>4.350949515575365</v>
       </c>
       <c r="E6">
-        <v>27.57836768226667</v>
+        <v>27.07458475047431</v>
       </c>
       <c r="F6">
-        <v>42.6800338289716</v>
+        <v>37.85212006175205</v>
       </c>
       <c r="G6">
-        <v>67.90407798612715</v>
+        <v>58.98300819690869</v>
       </c>
       <c r="H6">
-        <v>3.771539235082587</v>
+        <v>3.526634516422142</v>
       </c>
       <c r="I6">
-        <v>5.503076206387323</v>
+        <v>5.000315521954788</v>
       </c>
       <c r="J6">
-        <v>17.81815991783123</v>
+        <v>16.42258366928559</v>
       </c>
       <c r="K6">
-        <v>32.24231470542209</v>
+        <v>27.51877072528572</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>23.49980237360399</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>18.32795838778107</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -681,13 +711,19 @@
         <v>0</v>
       </c>
       <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
         <v>22.90084339962192</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,37 +731,37 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.277845346361651</v>
+        <v>6.921470063581311</v>
       </c>
       <c r="D7">
-        <v>5.364404853883673</v>
+        <v>4.398473439414296</v>
       </c>
       <c r="E7">
-        <v>28.23366107979991</v>
+        <v>27.70168866370538</v>
       </c>
       <c r="F7">
-        <v>43.65352349915793</v>
+        <v>38.61342968681735</v>
       </c>
       <c r="G7">
-        <v>69.52790767437959</v>
+        <v>60.39731958576397</v>
       </c>
       <c r="H7">
-        <v>3.88533082059444</v>
+        <v>3.626065386435916</v>
       </c>
       <c r="I7">
-        <v>5.627349108907494</v>
+        <v>5.094679840696377</v>
       </c>
       <c r="J7">
-        <v>18.17053369323629</v>
+        <v>16.61688897409402</v>
       </c>
       <c r="K7">
-        <v>32.93482136547895</v>
+        <v>28.01307623429256</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>23.76476295670291</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>18.82830735059654</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -734,13 +770,19 @@
         <v>0</v>
       </c>
       <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
         <v>23.33096569062624</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,37 +790,37 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.711538864534413</v>
+        <v>7.629422046703303</v>
       </c>
       <c r="D8">
-        <v>5.76111456888132</v>
+        <v>4.62172860260126</v>
       </c>
       <c r="E8">
-        <v>30.99010587692531</v>
+        <v>30.33454618243662</v>
       </c>
       <c r="F8">
-        <v>47.80144699559437</v>
+        <v>41.93511589289281</v>
       </c>
       <c r="G8">
-        <v>76.42832011090294</v>
+        <v>66.23352349946623</v>
       </c>
       <c r="H8">
-        <v>4.3759460494204</v>
+        <v>4.054327753798228</v>
       </c>
       <c r="I8">
-        <v>6.16658682977217</v>
+        <v>5.50432902138094</v>
       </c>
       <c r="J8">
-        <v>19.68522689146278</v>
+        <v>17.63017530716348</v>
       </c>
       <c r="K8">
-        <v>35.90387383830262</v>
+        <v>30.19264759677381</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>24.94440369492599</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>21.01422388362764</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -787,13 +829,19 @@
         <v>0</v>
       </c>
       <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>25.1395913014106</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,37 +849,37 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.529905363297456</v>
+        <v>8.925869017288614</v>
       </c>
       <c r="D9">
-        <v>6.487981108763649</v>
+        <v>5.053754042303041</v>
       </c>
       <c r="E9">
-        <v>35.91686512494876</v>
+        <v>35.00998872379132</v>
       </c>
       <c r="F9">
-        <v>55.28127856423394</v>
+        <v>48.02333010991793</v>
       </c>
       <c r="G9">
-        <v>88.80415756631656</v>
+        <v>76.40923006095099</v>
       </c>
       <c r="H9">
-        <v>5.299345371975672</v>
+        <v>4.854440593612645</v>
       </c>
       <c r="I9">
-        <v>7.192365560278549</v>
+        <v>6.278680356512218</v>
       </c>
       <c r="J9">
-        <v>22.45435441575678</v>
+        <v>19.74805163674461</v>
       </c>
       <c r="K9">
-        <v>41.28688823651867</v>
+        <v>34.22394855307633</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>27.12628575735654</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>25.07515233370488</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -840,13 +888,19 @@
         <v>0</v>
       </c>
       <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>28.34722074380644</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,37 +908,37 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.096983695870518</v>
+        <v>9.741160508155611</v>
       </c>
       <c r="D10">
-        <v>6.907646974281442</v>
+        <v>5.25198794628754</v>
       </c>
       <c r="E10">
-        <v>38.37301729541556</v>
+        <v>37.26317988717638</v>
       </c>
       <c r="F10">
-        <v>60.01878559574629</v>
+        <v>51.67356046353095</v>
       </c>
       <c r="G10">
-        <v>96.55967899849716</v>
+        <v>83.08621164414384</v>
       </c>
       <c r="H10">
-        <v>5.906691318258829</v>
+        <v>5.368854942813429</v>
       </c>
       <c r="I10">
-        <v>7.901838107766195</v>
+        <v>6.802662086968708</v>
       </c>
       <c r="J10">
-        <v>24.20881488796974</v>
+        <v>20.67532968352428</v>
       </c>
       <c r="K10">
-        <v>44.67357343661379</v>
+        <v>36.61248119194972</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>28.3395385920401</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>27.67165882177413</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -893,13 +947,19 @@
         <v>0</v>
       </c>
       <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
         <v>30.48602834203865</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,37 +967,37 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.067502869414917</v>
+        <v>9.507526303692188</v>
       </c>
       <c r="D11">
-        <v>6.536561390639531</v>
+        <v>4.866201738094508</v>
       </c>
       <c r="E11">
-        <v>32.01369723414992</v>
+        <v>30.79549236177878</v>
       </c>
       <c r="F11">
-        <v>59.58938851759937</v>
+        <v>50.85722498980165</v>
       </c>
       <c r="G11">
-        <v>95.50910082633175</v>
+        <v>82.82727436612177</v>
       </c>
       <c r="H11">
-        <v>6.12187738939969</v>
+        <v>5.609382459829615</v>
       </c>
       <c r="I11">
-        <v>8.000900757680213</v>
+        <v>6.872177251388367</v>
       </c>
       <c r="J11">
-        <v>23.92319237038819</v>
+        <v>19.54929735320355</v>
       </c>
       <c r="K11">
-        <v>44.23857626067476</v>
+        <v>35.93075099059918</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>27.59907250741609</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>27.44755494439917</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -946,13 +1006,19 @@
         <v>0</v>
       </c>
       <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
         <v>31.41016321374476</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,37 +1026,37 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.945582178991816</v>
+        <v>9.155611223958017</v>
       </c>
       <c r="D12">
-        <v>6.154540445503659</v>
+        <v>4.544377816131977</v>
       </c>
       <c r="E12">
-        <v>26.3317011424218</v>
+        <v>25.01966141602171</v>
       </c>
       <c r="F12">
-        <v>58.30439331301249</v>
+        <v>49.57974143506059</v>
       </c>
       <c r="G12">
-        <v>93.16476360359302</v>
+        <v>81.14968905025492</v>
       </c>
       <c r="H12">
-        <v>6.667947351712282</v>
+        <v>6.224958461097636</v>
       </c>
       <c r="I12">
-        <v>7.956931447595664</v>
+        <v>6.84040787895502</v>
       </c>
       <c r="J12">
-        <v>23.34824488120333</v>
+        <v>18.66773802185415</v>
       </c>
       <c r="K12">
-        <v>43.24960205737396</v>
+        <v>34.99873662743552</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>26.82632423084599</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>26.83822818166149</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -999,13 +1065,19 @@
         <v>0</v>
       </c>
       <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
         <v>31.75299711977163</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,37 +1085,37 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.759596617349032</v>
+        <v>8.73026830020925</v>
       </c>
       <c r="D13">
-        <v>5.714785334739742</v>
+        <v>4.243952426744254</v>
       </c>
       <c r="E13">
-        <v>20.80849829880494</v>
+        <v>19.39282522890692</v>
       </c>
       <c r="F13">
-        <v>56.16657479524634</v>
+        <v>47.8310470452271</v>
       </c>
       <c r="G13">
-        <v>89.4769682398265</v>
+        <v>77.93806229932324</v>
       </c>
       <c r="H13">
-        <v>7.418804429432933</v>
+        <v>7.059492290897082</v>
       </c>
       <c r="I13">
-        <v>7.796206737138676</v>
+        <v>6.728487917920129</v>
       </c>
       <c r="J13">
-        <v>22.46719509295746</v>
+        <v>18.03735916956754</v>
       </c>
       <c r="K13">
-        <v>41.66779540582976</v>
+        <v>33.77043982412992</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>25.94498384344853</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>25.86125347662374</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1052,13 +1124,19 @@
         <v>0</v>
       </c>
       <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>31.67947945617575</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,37 +1144,37 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.607669977004798</v>
+        <v>8.404305395243433</v>
       </c>
       <c r="D14">
-        <v>5.374297284271606</v>
+        <v>4.037975240575839</v>
       </c>
       <c r="E14">
-        <v>17.18138599150665</v>
+        <v>15.6733816249937</v>
       </c>
       <c r="F14">
-        <v>54.24565338162173</v>
+        <v>46.35505889182339</v>
       </c>
       <c r="G14">
-        <v>86.21852184928873</v>
+        <v>74.93627170882958</v>
       </c>
       <c r="H14">
-        <v>8.048260173260052</v>
+        <v>7.74569648155804</v>
       </c>
       <c r="I14">
-        <v>7.633148309243803</v>
+        <v>6.615328486064587</v>
       </c>
       <c r="J14">
-        <v>21.69612496968193</v>
+        <v>17.68826212867533</v>
       </c>
       <c r="K14">
-        <v>40.2596064856092</v>
+        <v>32.74575206760221</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>25.25647225821168</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>24.98782427302534</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1105,13 +1183,19 @@
         <v>0</v>
       </c>
       <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
         <v>31.43851144188476</v>
       </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,37 +1203,37 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.55341671124908</v>
+        <v>8.31055055581486</v>
       </c>
       <c r="D15">
-        <v>5.273915562295598</v>
+        <v>3.98581240074303</v>
       </c>
       <c r="E15">
-        <v>16.31968848113668</v>
+        <v>14.79750513048342</v>
       </c>
       <c r="F15">
-        <v>53.57889533110647</v>
+        <v>45.86583360289527</v>
       </c>
       <c r="G15">
-        <v>85.08883979985301</v>
+        <v>73.84521646437121</v>
       </c>
       <c r="H15">
-        <v>8.189483658985864</v>
+        <v>7.902224025141008</v>
       </c>
       <c r="I15">
-        <v>7.565631965580661</v>
+        <v>6.568508056671532</v>
       </c>
       <c r="J15">
-        <v>21.43234096595934</v>
+        <v>17.63523147169503</v>
       </c>
       <c r="K15">
-        <v>39.76474102122882</v>
+        <v>32.40748189988667</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>25.04682527560737</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>24.67527941607833</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1158,13 +1242,19 @@
         <v>0</v>
       </c>
       <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
         <v>31.28998244549472</v>
       </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,37 +1262,37 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.353780472717709</v>
+        <v>8.09436362222587</v>
       </c>
       <c r="D16">
-        <v>5.158926431691659</v>
+        <v>3.988483398652312</v>
       </c>
       <c r="E16">
-        <v>15.95536887157138</v>
+        <v>14.55407473368923</v>
       </c>
       <c r="F16">
-        <v>51.87513169011471</v>
+        <v>44.80423295553354</v>
       </c>
       <c r="G16">
-        <v>82.31697222171555</v>
+        <v>70.90232208019576</v>
       </c>
       <c r="H16">
-        <v>7.86426003245835</v>
+        <v>7.600203834123893</v>
       </c>
       <c r="I16">
-        <v>7.300960829506923</v>
+        <v>6.380005344067387</v>
       </c>
       <c r="J16">
-        <v>20.81459684236987</v>
+        <v>17.91954619149982</v>
       </c>
       <c r="K16">
-        <v>38.54795355809768</v>
+        <v>31.73193349825761</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>24.77143136254606</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>23.84403082275934</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1211,13 +1301,19 @@
         <v>0</v>
       </c>
       <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
         <v>30.42464283346099</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,37 +1321,37 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.27853545929819</v>
+        <v>8.098843183254534</v>
       </c>
       <c r="D17">
-        <v>5.25568181858416</v>
+        <v>4.096291084418623</v>
       </c>
       <c r="E17">
-        <v>17.58900354301582</v>
+        <v>16.33064222684877</v>
       </c>
       <c r="F17">
-        <v>51.59973768808423</v>
+        <v>44.75366757733825</v>
       </c>
       <c r="G17">
-        <v>81.96477037005572</v>
+        <v>70.37205650849653</v>
       </c>
       <c r="H17">
-        <v>7.224423085234672</v>
+        <v>6.950151808003431</v>
       </c>
       <c r="I17">
-        <v>7.181625411721111</v>
+        <v>6.292189175803074</v>
       </c>
       <c r="J17">
-        <v>20.76052792232814</v>
+        <v>18.23021357979635</v>
       </c>
       <c r="K17">
-        <v>38.37928926428093</v>
+        <v>31.74229381898506</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>24.91534208140708</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>23.65596815392225</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1264,13 +1360,19 @@
         <v>0</v>
       </c>
       <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
         <v>29.88120505119274</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,37 +1380,37 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.316964966369526</v>
+        <v>8.305353580435041</v>
       </c>
       <c r="D18">
-        <v>5.559160589308992</v>
+        <v>4.332943379931631</v>
       </c>
       <c r="E18">
-        <v>21.62287319569178</v>
+        <v>20.5098149956989</v>
       </c>
       <c r="F18">
-        <v>52.59254043599337</v>
+        <v>45.68584169066121</v>
       </c>
       <c r="G18">
-        <v>83.7808419521278</v>
+        <v>71.84313292090111</v>
       </c>
       <c r="H18">
-        <v>6.359693560187976</v>
+        <v>6.03892413911946</v>
       </c>
       <c r="I18">
-        <v>7.184016560559884</v>
+        <v>6.290217889224301</v>
       </c>
       <c r="J18">
-        <v>21.21082918314325</v>
+        <v>18.76139706695216</v>
       </c>
       <c r="K18">
-        <v>39.15588942091862</v>
+        <v>32.43829894464573</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>25.50522272234642</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>24.08148147544685</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1317,13 +1419,19 @@
         <v>0</v>
       </c>
       <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
         <v>29.5640428768043</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,37 +1439,37 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.482592529795673</v>
+        <v>8.722597423803929</v>
       </c>
       <c r="D19">
-        <v>5.984676916403714</v>
+        <v>4.649429981061382</v>
       </c>
       <c r="E19">
-        <v>27.56225837072644</v>
+        <v>26.53978249888042</v>
       </c>
       <c r="F19">
-        <v>54.42045275496923</v>
+        <v>47.26208152524887</v>
       </c>
       <c r="G19">
-        <v>87.01328474911566</v>
+        <v>74.58309848372899</v>
       </c>
       <c r="H19">
-        <v>5.662715362700053</v>
+        <v>5.265532581689746</v>
       </c>
       <c r="I19">
-        <v>7.29125792741684</v>
+        <v>6.366026838660638</v>
       </c>
       <c r="J19">
-        <v>21.98468597503069</v>
+        <v>19.44787980038415</v>
       </c>
       <c r="K19">
-        <v>40.52525368217881</v>
+        <v>33.55275789602391</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>26.35135008630206</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>24.91423264076702</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1370,13 +1478,19 @@
         <v>0</v>
       </c>
       <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
         <v>29.45587200880252</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,37 +1498,37 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.974858732037907</v>
+        <v>9.61858655168286</v>
       </c>
       <c r="D20">
-        <v>6.759373452742874</v>
+        <v>5.190648320597227</v>
       </c>
       <c r="E20">
-        <v>37.68505164761227</v>
+        <v>36.63829882494526</v>
       </c>
       <c r="F20">
-        <v>58.61762863543169</v>
+        <v>50.68065016002379</v>
       </c>
       <c r="G20">
-        <v>94.25560629948131</v>
+        <v>80.87912228946333</v>
       </c>
       <c r="H20">
-        <v>5.73906157076406</v>
+        <v>5.229959255093972</v>
       </c>
       <c r="I20">
-        <v>7.703250129022011</v>
+        <v>6.662921439610304</v>
       </c>
       <c r="J20">
-        <v>23.68176381469977</v>
+        <v>20.61379032014224</v>
       </c>
       <c r="K20">
-        <v>43.62757570522837</v>
+        <v>35.91774834038736</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>27.96881759994246</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>26.94345442868198</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1423,13 +1537,19 @@
         <v>0</v>
       </c>
       <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
         <v>29.93953086719064</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,37 +1557,37 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.462549857700592</v>
+        <v>10.20417655431367</v>
       </c>
       <c r="D21">
-        <v>7.173861734743403</v>
+        <v>5.301551894437365</v>
       </c>
       <c r="E21">
-        <v>40.86423188850794</v>
+        <v>39.6297968448304</v>
       </c>
       <c r="F21">
-        <v>62.67754257423428</v>
+        <v>53.26174192896745</v>
       </c>
       <c r="G21">
-        <v>100.8248857065319</v>
+        <v>87.63934406206192</v>
       </c>
       <c r="H21">
-        <v>6.281567089414887</v>
+        <v>5.680915504169073</v>
       </c>
       <c r="I21">
-        <v>8.287878922344948</v>
+        <v>7.071805800598225</v>
       </c>
       <c r="J21">
-        <v>25.20622142663455</v>
+        <v>20.22193608041388</v>
       </c>
       <c r="K21">
-        <v>46.50133713644972</v>
+        <v>37.60513567583803</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>28.80282077732923</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>28.80946283816039</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1476,13 +1596,19 @@
         <v>0</v>
       </c>
       <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
         <v>31.50948335633596</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,37 +1616,37 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.753455715882732</v>
+        <v>10.51867043418625</v>
       </c>
       <c r="D22">
-        <v>7.41936638303033</v>
+        <v>5.349831875746069</v>
       </c>
       <c r="E22">
-        <v>42.44737907079411</v>
+        <v>41.08357084994145</v>
       </c>
       <c r="F22">
-        <v>65.18638117355715</v>
+        <v>54.79428433185463</v>
       </c>
       <c r="G22">
-        <v>104.8517145933608</v>
+        <v>91.86758472622843</v>
       </c>
       <c r="H22">
-        <v>6.611444878957134</v>
+        <v>5.950763318661981</v>
       </c>
       <c r="I22">
-        <v>8.661976765639471</v>
+        <v>7.329955896135372</v>
       </c>
       <c r="J22">
-        <v>26.21047107532996</v>
+        <v>19.86008928252243</v>
       </c>
       <c r="K22">
-        <v>48.27834124186472</v>
+        <v>38.61613694781359</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>29.28610412854189</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>29.94237059212756</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1529,13 +1655,19 @@
         <v>0</v>
       </c>
       <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
         <v>32.49403281050594</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,37 +1675,37 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.587632000774285</v>
+        <v>10.34200494041016</v>
       </c>
       <c r="D23">
-        <v>7.302809185747</v>
+        <v>5.351029344749961</v>
       </c>
       <c r="E23">
-        <v>41.61156609943381</v>
+        <v>40.31814024220897</v>
       </c>
       <c r="F23">
-        <v>63.91510647452524</v>
+        <v>54.10440425987301</v>
       </c>
       <c r="G23">
-        <v>102.8146616070684</v>
+        <v>89.56524836153173</v>
       </c>
       <c r="H23">
-        <v>6.437880905180476</v>
+        <v>5.809993479436886</v>
       </c>
       <c r="I23">
-        <v>8.466806490537088</v>
+        <v>7.196936624703941</v>
       </c>
       <c r="J23">
-        <v>25.70366540176713</v>
+        <v>20.24531805556116</v>
       </c>
       <c r="K23">
-        <v>47.39506173968287</v>
+        <v>38.18313341324263</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>29.1062725323074</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>29.41935298227716</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1582,13 +1714,19 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
         <v>31.97238356075506</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,37 +1734,37 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.980055552219541</v>
+        <v>9.622373358159283</v>
       </c>
       <c r="D24">
-        <v>6.824472738623201</v>
+        <v>5.243156043629138</v>
       </c>
       <c r="E24">
-        <v>38.34926912667974</v>
+        <v>37.30114488693763</v>
       </c>
       <c r="F24">
-        <v>58.87705132811013</v>
+        <v>50.91083156427503</v>
       </c>
       <c r="G24">
-        <v>94.717337789781</v>
+        <v>81.26906846159694</v>
       </c>
       <c r="H24">
-        <v>5.774674911021691</v>
+        <v>5.262232766808916</v>
       </c>
       <c r="I24">
-        <v>7.720751183124635</v>
+        <v>6.673806566853655</v>
       </c>
       <c r="J24">
-        <v>23.79257025786032</v>
+        <v>20.72184278674053</v>
       </c>
       <c r="K24">
-        <v>43.84765795980496</v>
+        <v>36.10712622566308</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>28.11514137681223</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>27.08274061141498</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1635,13 +1773,19 @@
         <v>0</v>
       </c>
       <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
         <v>29.91317649911916</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,37 +1793,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.327339094548819</v>
+        <v>8.636557421078232</v>
       </c>
       <c r="D25">
-        <v>6.276165985042505</v>
+        <v>4.932878643128235</v>
       </c>
       <c r="E25">
-        <v>34.62685944458568</v>
+        <v>33.79406251594001</v>
       </c>
       <c r="F25">
-        <v>53.23496014724823</v>
+        <v>46.39808688676019</v>
       </c>
       <c r="G25">
-        <v>85.41593450689994</v>
+        <v>73.5205054863881</v>
       </c>
       <c r="H25">
-        <v>5.049804101840061</v>
+        <v>4.640614017242733</v>
       </c>
       <c r="I25">
-        <v>6.911040494880842</v>
+        <v>6.07033454349946</v>
       </c>
       <c r="J25">
-        <v>21.688510319772</v>
+        <v>19.26358020421769</v>
       </c>
       <c r="K25">
-        <v>39.78553483420213</v>
+        <v>33.11941604061133</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>26.52013776402001</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>23.94273926967116</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1688,9 +1832,15 @@
         <v>0</v>
       </c>
       <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
         <v>27.51708508088413</v>
       </c>
-      <c r="Q25">
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
